--- a/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.508587743748535</v>
+        <v>2.508587743748592</v>
       </c>
       <c r="C2">
-        <v>1.377010495378499</v>
+        <v>1.377010495378272</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1632022163363587</v>
+        <v>0.1632022163364155</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.10744485573646</v>
+        <v>1.107444855736468</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,13 +453,13 @@
         <v>2.149638052211742</v>
       </c>
       <c r="C3">
-        <v>1.178040848226544</v>
+        <v>1.178040848227113</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1413501466730551</v>
+        <v>0.1413501466730196</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.398485116034934</v>
+        <v>2.398485116034919</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9489824721660369</v>
+        <v>0.9489824721660653</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.934262907320061</v>
+        <v>1.934262907319976</v>
       </c>
       <c r="C4">
-        <v>1.058991256413094</v>
+        <v>1.05899125641281</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1283512860650049</v>
+        <v>0.1283512860650795</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.211591760856592</v>
+        <v>2.211591760856564</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8541903219787343</v>
+        <v>0.8541903219787415</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.847552128027871</v>
+        <v>1.847552128028013</v>
       </c>
       <c r="C5">
-        <v>1.011133924587057</v>
+        <v>1.011133924587341</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1231440995907782</v>
+        <v>0.1231440995907924</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.136764214512368</v>
+        <v>2.136764214512397</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8160927551825523</v>
+        <v>0.8160927551825594</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.833212095248768</v>
+        <v>1.833212095248712</v>
       </c>
       <c r="C6">
-        <v>1.003223437341745</v>
+        <v>1.003223437341347</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1222844703833523</v>
+        <v>0.12228447038326</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.124413603766101</v>
+        <v>2.124413603766044</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.933089473399718</v>
+        <v>1.933089473399548</v>
       </c>
       <c r="C7">
         <v>1.058343336274959</v>
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1282807147900691</v>
+        <v>0.1282807147900584</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.210577490294114</v>
+        <v>2.210577490294071</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8536744969889156</v>
+        <v>0.853674496988944</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>2.383647376198326</v>
       </c>
       <c r="C8">
-        <v>1.307676538908936</v>
+        <v>1.307676538908709</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1555710158354557</v>
+        <v>0.1555710158354273</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.052223950100441</v>
+        <v>1.052223950100455</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.317896500857671</v>
+        <v>3.317896500857501</v>
       </c>
       <c r="C9">
-        <v>1.82808931912416</v>
+        <v>1.828089319123649</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.213207234494547</v>
+        <v>0.2132072344945399</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.433546374422903</v>
+        <v>3.433546374422789</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.466641986302349</v>
+        <v>1.466641986302335</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.053362539319266</v>
+        <v>4.053362539319096</v>
       </c>
       <c r="C10">
-        <v>2.240868395982716</v>
+        <v>2.240868395983341</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2593977135338434</v>
+        <v>0.2593977135338577</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.099910456637929</v>
+        <v>4.0999104566379</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.795064434573234</v>
+        <v>1.795064434573248</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.403769245052501</v>
+        <v>4.403769245052388</v>
       </c>
       <c r="C11">
-        <v>2.438465020092735</v>
+        <v>2.43846502009319</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2816243864287671</v>
+        <v>0.2816243864287955</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.420666849563503</v>
+        <v>4.420666849563617</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.952138630276963</v>
+        <v>1.952138630277005</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.539283623460847</v>
+        <v>4.539283623460619</v>
       </c>
       <c r="C12">
-        <v>2.515041746854081</v>
+        <v>2.515041746853797</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2902556766019018</v>
+        <v>0.2902556766017881</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.545229689493198</v>
+        <v>4.545229689493226</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.509962641646382</v>
+        <v>4.509962641646325</v>
       </c>
       <c r="C13">
-        <v>2.498465483466305</v>
+        <v>2.498465483466475</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2883865023406216</v>
+        <v>0.2883865023406926</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.5182547080056</v>
+        <v>4.518254708005543</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.414857965922977</v>
+        <v>4.41485796592292</v>
       </c>
       <c r="C14">
-        <v>2.444727727608836</v>
+        <v>2.444727727608949</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2823299285390419</v>
+        <v>0.2823299285390348</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.430848927502581</v>
+        <v>4.430848927502524</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.957115294648787</v>
+        <v>1.957115294648801</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,13 +909,13 @@
         <v>4.356989453484005</v>
       </c>
       <c r="C15">
-        <v>2.412051184794734</v>
+        <v>2.412051184794166</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2786493727340726</v>
+        <v>0.2786493727339732</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.377732795487645</v>
+        <v>4.37773279548756</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.931147669214411</v>
+        <v>1.931147669214383</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.030825369616025</v>
+        <v>4.030825369616196</v>
       </c>
       <c r="C16">
-        <v>2.228179956945667</v>
+        <v>2.228179956945837</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2579728059708444</v>
+        <v>0.2579728059707378</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.079348599277012</v>
+        <v>4.079348599276983</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.784974668772193</v>
+        <v>1.784974668772179</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.83514404696183</v>
+        <v>3.835144046962057</v>
       </c>
       <c r="C17">
-        <v>2.118115566465235</v>
+        <v>2.118115566465292</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.245625276483878</v>
+        <v>0.2456252764838425</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.901180390388987</v>
+        <v>3.901180390389044</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.697435966690747</v>
+        <v>1.697435966690762</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.724045619122194</v>
+        <v>3.724045619122251</v>
       </c>
       <c r="C18">
-        <v>2.055709863147911</v>
+        <v>2.055709863147854</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2386347863056173</v>
+        <v>0.2386347863056031</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.800321805922636</v>
+        <v>3.800321805922579</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.68666424611223</v>
+        <v>3.686664246112173</v>
       </c>
       <c r="C19">
-        <v>2.034725830899163</v>
+        <v>2.034725830899276</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2362859907621484</v>
+        <v>0.2362859907622692</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.766435511027112</v>
+        <v>3.766435511027055</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>3.855820766594661</v>
       </c>
       <c r="C20">
-        <v>2.129736692390679</v>
+        <v>2.129736692390736</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2469278916399773</v>
+        <v>0.2469278916400057</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.919975407218573</v>
+        <v>3.919975407218431</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.706680057837886</v>
+        <v>1.706680057837872</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,7 +1137,7 @@
         <v>4.442710956425799</v>
       </c>
       <c r="C21">
-        <v>2.46046120739345</v>
+        <v>2.46046120739328</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.456432906091862</v>
+        <v>4.456432906091834</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>4.843078840324154</v>
       </c>
       <c r="C22">
-        <v>2.687032026999134</v>
+        <v>2.687032026999418</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3096743988185082</v>
+        <v>0.3096743988184656</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.82546038681869</v>
+        <v>4.825460386818634</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.627644315279156</v>
+        <v>4.627644315279099</v>
       </c>
       <c r="C23">
         <v>2.565020430068046</v>
@@ -1219,16 +1219,16 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2958939697224636</v>
+        <v>0.2958939697225489</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.626597999179154</v>
+        <v>4.626597999179211</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.052684440703104</v>
+        <v>2.052684440703118</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>3.846468496229249</v>
       </c>
       <c r="C24">
-        <v>2.124480090520763</v>
+        <v>2.124480090520365</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2463386449883203</v>
+        <v>0.2463386449882989</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.911473322560994</v>
+        <v>3.911473322561022</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.058043835556305</v>
+        <v>3.058043835556362</v>
       </c>
       <c r="C25">
         <v>1.682891668751552</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1970501563852238</v>
+        <v>0.1970501563851599</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.200593884783046</v>
+        <v>3.200593884782961</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.351043013763757</v>
+        <v>1.351043013763771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.508587743748592</v>
+        <v>2.508587743748535</v>
       </c>
       <c r="C2">
-        <v>1.377010495378272</v>
+        <v>1.377010495378499</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1632022163364155</v>
+        <v>0.1632022163363587</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.107444855736468</v>
+        <v>1.10744485573646</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,13 +453,13 @@
         <v>2.149638052211742</v>
       </c>
       <c r="C3">
-        <v>1.178040848227113</v>
+        <v>1.178040848226544</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1413501466730196</v>
+        <v>0.1413501466730551</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.398485116034919</v>
+        <v>2.398485116034934</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9489824721660653</v>
+        <v>0.9489824721660369</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.934262907319976</v>
+        <v>1.934262907320061</v>
       </c>
       <c r="C4">
-        <v>1.05899125641281</v>
+        <v>1.058991256413094</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1283512860650795</v>
+        <v>0.1283512860650049</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.211591760856564</v>
+        <v>2.211591760856592</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8541903219787415</v>
+        <v>0.8541903219787343</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.847552128028013</v>
+        <v>1.847552128027871</v>
       </c>
       <c r="C5">
-        <v>1.011133924587341</v>
+        <v>1.011133924587057</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1231440995907924</v>
+        <v>0.1231440995907782</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.136764214512397</v>
+        <v>2.136764214512368</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8160927551825594</v>
+        <v>0.8160927551825523</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.833212095248712</v>
+        <v>1.833212095248768</v>
       </c>
       <c r="C6">
-        <v>1.003223437341347</v>
+        <v>1.003223437341745</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.12228447038326</v>
+        <v>0.1222844703833523</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.124413603766044</v>
+        <v>2.124413603766101</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.933089473399548</v>
+        <v>1.933089473399718</v>
       </c>
       <c r="C7">
         <v>1.058343336274959</v>
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1282807147900584</v>
+        <v>0.1282807147900691</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.210577490294071</v>
+        <v>2.210577490294114</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.853674496988944</v>
+        <v>0.8536744969889156</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>2.383647376198326</v>
       </c>
       <c r="C8">
-        <v>1.307676538908709</v>
+        <v>1.307676538908936</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1555710158354273</v>
+        <v>0.1555710158354557</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.052223950100455</v>
+        <v>1.052223950100441</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.317896500857501</v>
+        <v>3.317896500857671</v>
       </c>
       <c r="C9">
-        <v>1.828089319123649</v>
+        <v>1.82808931912416</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2132072344945399</v>
+        <v>0.213207234494547</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.433546374422789</v>
+        <v>3.433546374422903</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.466641986302335</v>
+        <v>1.466641986302349</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.053362539319096</v>
+        <v>4.053362539319266</v>
       </c>
       <c r="C10">
-        <v>2.240868395983341</v>
+        <v>2.240868395982716</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2593977135338577</v>
+        <v>0.2593977135338434</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.0999104566379</v>
+        <v>4.099910456637929</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.795064434573248</v>
+        <v>1.795064434573234</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.403769245052388</v>
+        <v>4.403769245052501</v>
       </c>
       <c r="C11">
-        <v>2.43846502009319</v>
+        <v>2.438465020092735</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2816243864287955</v>
+        <v>0.2816243864287671</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.420666849563617</v>
+        <v>4.420666849563503</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.952138630277005</v>
+        <v>1.952138630276963</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.539283623460619</v>
+        <v>4.539283623460847</v>
       </c>
       <c r="C12">
-        <v>2.515041746853797</v>
+        <v>2.515041746854081</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2902556766017881</v>
+        <v>0.2902556766019018</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.545229689493226</v>
+        <v>4.545229689493198</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.509962641646325</v>
+        <v>4.509962641646382</v>
       </c>
       <c r="C13">
-        <v>2.498465483466475</v>
+        <v>2.498465483466305</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2883865023406926</v>
+        <v>0.2883865023406216</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.518254708005543</v>
+        <v>4.5182547080056</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.41485796592292</v>
+        <v>4.414857965922977</v>
       </c>
       <c r="C14">
-        <v>2.444727727608949</v>
+        <v>2.444727727608836</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2823299285390348</v>
+        <v>0.2823299285390419</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.430848927502524</v>
+        <v>4.430848927502581</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.957115294648801</v>
+        <v>1.957115294648787</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,13 +909,13 @@
         <v>4.356989453484005</v>
       </c>
       <c r="C15">
-        <v>2.412051184794166</v>
+        <v>2.412051184794734</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2786493727339732</v>
+        <v>0.2786493727340726</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.37773279548756</v>
+        <v>4.377732795487645</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.931147669214383</v>
+        <v>1.931147669214411</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.030825369616196</v>
+        <v>4.030825369616025</v>
       </c>
       <c r="C16">
-        <v>2.228179956945837</v>
+        <v>2.228179956945667</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2579728059707378</v>
+        <v>0.2579728059708444</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.079348599276983</v>
+        <v>4.079348599277012</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.784974668772179</v>
+        <v>1.784974668772193</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.835144046962057</v>
+        <v>3.83514404696183</v>
       </c>
       <c r="C17">
-        <v>2.118115566465292</v>
+        <v>2.118115566465235</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2456252764838425</v>
+        <v>0.245625276483878</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.901180390389044</v>
+        <v>3.901180390388987</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.697435966690762</v>
+        <v>1.697435966690747</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.724045619122251</v>
+        <v>3.724045619122194</v>
       </c>
       <c r="C18">
-        <v>2.055709863147854</v>
+        <v>2.055709863147911</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2386347863056031</v>
+        <v>0.2386347863056173</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.800321805922579</v>
+        <v>3.800321805922636</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.686664246112173</v>
+        <v>3.68666424611223</v>
       </c>
       <c r="C19">
-        <v>2.034725830899276</v>
+        <v>2.034725830899163</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2362859907622692</v>
+        <v>0.2362859907621484</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.766435511027055</v>
+        <v>3.766435511027112</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>3.855820766594661</v>
       </c>
       <c r="C20">
-        <v>2.129736692390736</v>
+        <v>2.129736692390679</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2469278916400057</v>
+        <v>0.2469278916399773</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.919975407218431</v>
+        <v>3.919975407218573</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.706680057837872</v>
+        <v>1.706680057837886</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,7 +1137,7 @@
         <v>4.442710956425799</v>
       </c>
       <c r="C21">
-        <v>2.46046120739328</v>
+        <v>2.46046120739345</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.456432906091834</v>
+        <v>4.456432906091862</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>4.843078840324154</v>
       </c>
       <c r="C22">
-        <v>2.687032026999418</v>
+        <v>2.687032026999134</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3096743988184656</v>
+        <v>0.3096743988185082</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.825460386818634</v>
+        <v>4.82546038681869</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.627644315279099</v>
+        <v>4.627644315279156</v>
       </c>
       <c r="C23">
         <v>2.565020430068046</v>
@@ -1219,16 +1219,16 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2958939697225489</v>
+        <v>0.2958939697224636</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.626597999179211</v>
+        <v>4.626597999179154</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.052684440703118</v>
+        <v>2.052684440703104</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>3.846468496229249</v>
       </c>
       <c r="C24">
-        <v>2.124480090520365</v>
+        <v>2.124480090520763</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2463386449882989</v>
+        <v>0.2463386449883203</v>
       </c>
       <c r="F24">
-        <v>2.170038921573024</v>
+        <v>2.170038921573038</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.911473322561022</v>
+        <v>3.911473322560994</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.058043835556362</v>
+        <v>3.058043835556305</v>
       </c>
       <c r="C25">
         <v>1.682891668751552</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1970501563851599</v>
+        <v>0.1970501563852238</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.200593884782961</v>
+        <v>3.200593884783046</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.351043013763771</v>
+        <v>1.351043013763757</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.508587743748535</v>
+        <v>2.476997488969744</v>
       </c>
       <c r="C2">
-        <v>1.377010495378499</v>
+        <v>1.358588716978886</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1632022163363587</v>
+        <v>0.1619585875411147</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007732830630038825</v>
       </c>
       <c r="H2">
-        <v>2.712948941368936</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.7265256016845</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.10744485573646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1.098965052795997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.149638052211742</v>
+        <v>2.122912272805422</v>
       </c>
       <c r="C3">
-        <v>1.178040848226544</v>
+        <v>1.162708354334256</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1413501466730551</v>
+        <v>0.1400855482846204</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007844172887603151</v>
       </c>
       <c r="H3">
-        <v>2.398485116034934</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.415934133391048</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9489824721660369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.9421177746944025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.934262907320061</v>
+        <v>1.910495799788663</v>
       </c>
       <c r="C4">
-        <v>1.058991256413094</v>
+        <v>1.04553025535705</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1283512860650049</v>
+        <v>0.127067094408055</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007913712314300805</v>
       </c>
       <c r="H4">
-        <v>2.211591760856592</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.231346611575461</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8541903219787343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.8482928083876047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.847552128027871</v>
+        <v>1.824987741288226</v>
       </c>
       <c r="C5">
-        <v>1.011133924587057</v>
+        <v>0.9984319421298267</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1231440995907782</v>
+        <v>0.1218504139874312</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007942383323299988</v>
       </c>
       <c r="H5">
-        <v>2.136764214512368</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.157444972447834</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8160927551825523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.8105849871361457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.833212095248768</v>
+        <v>1.810847348701657</v>
       </c>
       <c r="C6">
-        <v>1.003223437341745</v>
+        <v>0.9906473423703233</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1222844703833523</v>
+        <v>0.1209891217906893</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007947165265824729</v>
       </c>
       <c r="H6">
-        <v>2.124413603766101</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.145247392205178</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8097960849450772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.8043528151691035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.933089473399718</v>
+        <v>1.909338593203131</v>
       </c>
       <c r="C7">
-        <v>1.058343336274959</v>
+        <v>1.044892582988155</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1282807147900691</v>
+        <v>0.1269964009925317</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007914097586743614</v>
       </c>
       <c r="H7">
-        <v>2.210577490294114</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.230344878511076</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8536744969889156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.8477822552818211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.383647376198326</v>
+        <v>2.353742924441519</v>
       </c>
       <c r="C8">
-        <v>1.307676538908936</v>
+        <v>1.290326998104433</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1555710158354557</v>
+        <v>0.1543216702353476</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000777100169121423</v>
       </c>
       <c r="H8">
-        <v>2.603094856412923</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.618024427716449</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.052223950100441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1.044307281313472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.317896500857671</v>
+        <v>3.275472993247547</v>
       </c>
       <c r="C9">
-        <v>1.82808931912416</v>
+        <v>1.8027411847454</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.213207234494547</v>
+        <v>0.2119628201826416</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007497745904231206</v>
       </c>
       <c r="H9">
-        <v>3.433546374422903</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.438180979761071</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.466641986302349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.454462068209097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.053362539319266</v>
+        <v>4.001055391472676</v>
       </c>
       <c r="C10">
-        <v>2.240868395982716</v>
+        <v>2.209156443806307</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2593977135338434</v>
+        <v>0.2580988199457082</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007298211680610844</v>
       </c>
       <c r="H10">
-        <v>4.099910456637929</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.096064682041401</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.795064434573234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.779394624600755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.403769245052501</v>
+        <v>4.346687886269251</v>
       </c>
       <c r="C11">
-        <v>2.438465020092735</v>
+        <v>2.40366701057593</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2816243864287671</v>
+        <v>0.2802817239056523</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007206788336236106</v>
       </c>
       <c r="H11">
-        <v>4.420666849563503</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.412632042405392</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.952138630276963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.9347468148611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.539283623460847</v>
+        <v>4.480339499281342</v>
       </c>
       <c r="C12">
-        <v>2.515041746854081</v>
+        <v>2.479037818947745</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2902556766019018</v>
+        <v>0.2888929450883779</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007171978504628375</v>
       </c>
       <c r="H12">
-        <v>4.545229689493198</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.535545805429194</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.012982819865584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.994912992588041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.509962641646382</v>
+        <v>4.451422423908582</v>
       </c>
       <c r="C13">
-        <v>2.498465483466305</v>
+        <v>2.462723118691258</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2883865023406216</v>
+        <v>0.2870282634268762</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007179485612172362</v>
       </c>
       <c r="H13">
-        <v>4.5182547080056</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.508929064366839</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.999813524180269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.981890999083177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.414857965922977</v>
+        <v>4.357624557442023</v>
       </c>
       <c r="C14">
-        <v>2.444727727608836</v>
+        <v>2.409831320653211</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2823299285390419</v>
+        <v>0.2809856902589161</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007203928935812787</v>
       </c>
       <c r="H14">
-        <v>4.430848927502581</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.422679810820966</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.957115294648787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.939668263422746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.356989453484005</v>
+        <v>4.300548839314558</v>
       </c>
       <c r="C15">
-        <v>2.412051184794734</v>
+        <v>2.377667753534865</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2786493727340726</v>
+        <v>0.2773132281405211</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007218873272469839</v>
       </c>
       <c r="H15">
-        <v>4.377732795487645</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.37026338375918</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.931147669214411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.913988285393955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.030825369616025</v>
+        <v>3.978823455785744</v>
       </c>
       <c r="C16">
-        <v>2.228179956945667</v>
+        <v>2.196665064439117</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2579728059708444</v>
+        <v>0.2566763308566138</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007304165510118064</v>
       </c>
       <c r="H16">
-        <v>4.079348599277012</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.075768723566796</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.784974668772193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.769414170646925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.83514404696183</v>
+        <v>3.78578460093172</v>
       </c>
       <c r="C17">
-        <v>2.118115566465235</v>
+        <v>2.088305339589681</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.245625276483878</v>
+        <v>0.2443478033340369</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007356259860491853</v>
       </c>
       <c r="H17">
-        <v>3.901180390388987</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.899892282468869</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.697435966690747</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.682817790215566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.724045619122194</v>
+        <v>3.676180976668263</v>
       </c>
       <c r="C18">
-        <v>2.055709863147911</v>
+        <v>2.026862850517603</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2386347863056173</v>
+        <v>0.2373665130584612</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007386168320402781</v>
       </c>
       <c r="H18">
-        <v>3.800321805922636</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.800321798982793</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.647789839295783</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.633701497064649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.68666424611223</v>
+        <v>3.63930179841401</v>
       </c>
       <c r="C19">
-        <v>2.034725830899163</v>
+        <v>2.006202235885439</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2362859907621484</v>
+        <v>0.2350205548938149</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007396287997926475</v>
       </c>
       <c r="H19">
-        <v>3.766435511027112</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.76686686401905</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.6310943382327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.617183470150579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.855820766594661</v>
+        <v>3.806182714735939</v>
       </c>
       <c r="C20">
-        <v>2.129736692390679</v>
+        <v>2.099746849963708</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2469278916399773</v>
+        <v>0.245648579469929</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007350720632817165</v>
       </c>
       <c r="H20">
-        <v>3.919975407218573</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.918446544358574</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.706680057837886</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.691962870227158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.442710956425799</v>
+        <v>4.385095336751704</v>
       </c>
       <c r="C21">
-        <v>2.46046120739345</v>
+        <v>2.425317427195068</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2841027071893123</v>
+        <v>0.2827544587947983</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007196755356314354</v>
       </c>
       <c r="H21">
-        <v>4.456432906091862</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.447925936349293</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.969617432781988</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.952031503790749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.843078840324154</v>
+        <v>4.779919055189396</v>
       </c>
       <c r="C22">
-        <v>2.687032026999134</v>
+        <v>2.648295553146625</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3096743988185082</v>
+        <v>0.3082601665077647</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007094963468040892</v>
       </c>
       <c r="H22">
-        <v>4.82546038681869</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.812016267552707</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.149575827711217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2.129959205078691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.627644315279156</v>
+        <v>4.567479966718963</v>
       </c>
       <c r="C23">
-        <v>2.565020430068046</v>
+        <v>2.528226037634909</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2958939697224636</v>
+        <v>0.2945171941372564</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007149435751745058</v>
       </c>
       <c r="H23">
-        <v>4.626597999179154</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.615829648866111</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.052684440703104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2.034168644627371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.846468496229249</v>
+        <v>3.796956476964169</v>
       </c>
       <c r="C24">
-        <v>2.124480090520763</v>
+        <v>2.094571503978273</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2463386449883203</v>
+        <v>0.2450601695569645</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007353225038851685</v>
       </c>
       <c r="H24">
-        <v>3.911473322560994</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.910053395712566</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.702498701815912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.687826313795924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.058043835556305</v>
+        <v>3.019091989662627</v>
       </c>
       <c r="C25">
-        <v>1.682891668751552</v>
+        <v>1.659769424779483</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1970501563852238</v>
+        <v>0.1958129020304966</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007571185167158274</v>
       </c>
       <c r="H25">
-        <v>3.200593884783046</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.20813797844616</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.351043013763757</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.340063686312831</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.476997488969744</v>
+        <v>2.511011270237361</v>
       </c>
       <c r="C2">
-        <v>1.358588716978886</v>
+        <v>0.609477459320857</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1619585875411147</v>
+        <v>1.434139141585305</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007732830630038825</v>
+        <v>0.0007722623713178283</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.7265256016845</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6991039479048382</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.098965052795997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.535248886493903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.122912272805422</v>
+        <v>2.154694462315717</v>
       </c>
       <c r="C3">
-        <v>1.162708354334256</v>
+        <v>0.5235432879861435</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1400855482846204</v>
+        <v>1.220609356598985</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007844172887603151</v>
+        <v>0.0007824683438415489</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.415934133391048</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5995337546049342</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9421177746944025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.233557588432745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.910495799788663</v>
+        <v>1.940688513669556</v>
       </c>
       <c r="C4">
-        <v>1.04553025535705</v>
+        <v>0.4719509993844895</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.127067094408055</v>
+        <v>1.093759016393179</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007913712314300805</v>
+        <v>0.0007888287100324024</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.231346611575461</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5397325936172095</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8482928083876047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2.055587052321101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.824987741288226</v>
+        <v>1.85448249459472</v>
       </c>
       <c r="C5">
-        <v>0.9984319421298267</v>
+        <v>0.4511672741889186</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1218504139874312</v>
+        <v>1.042952906774147</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007942383323299988</v>
+        <v>0.0007914480160684991</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.157444972447834</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5156420215587616</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8105849871361457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.984634294785721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.810847348701657</v>
+        <v>1.84022331823769</v>
       </c>
       <c r="C6">
-        <v>0.9906473423703233</v>
+        <v>0.4477292302043736</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1209891217906893</v>
+        <v>1.034565208240096</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0007947165265824729</v>
+        <v>0.0007918847078652869</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.145247392205178</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.511657112396577</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8043528151691035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.972940640340113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.909338593203131</v>
+        <v>1.939522090949765</v>
       </c>
       <c r="C7">
-        <v>1.044892582988155</v>
+        <v>0.4716697952702873</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1269964009925317</v>
+        <v>1.093070463828766</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007914097586743614</v>
+        <v>0.0007888639192419239</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.230344878511076</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5394066406714799</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8477822552818211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2.05462411188455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.353742924441519</v>
+        <v>2.387035627851617</v>
       </c>
       <c r="C8">
-        <v>1.290326998104433</v>
+        <v>0.5795693271120115</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1543216702353476</v>
+        <v>1.359511161730879</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.000777100169121423</v>
+        <v>0.0007757643509841947</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.618024427716449</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6644584114491039</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.044307281313472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.429552830464417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.275472993247547</v>
+        <v>3.312931387380331</v>
       </c>
       <c r="C9">
-        <v>1.8027411847454</v>
+        <v>0.8033438161539834</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2119628201826416</v>
+        <v>1.92572067463459</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007497745904231206</v>
+        <v>0.0007506200797141933</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.438180979761071</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9232982268998029</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.454462068209097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.235940546152392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.001055391472676</v>
+        <v>4.040245129617404</v>
       </c>
       <c r="C10">
-        <v>2.209156443806307</v>
+        <v>0.9800998701774688</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2580988199457082</v>
+        <v>2.385550847394015</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
-        <v>0.0007298211680610844</v>
+        <v>0.0007321401745424107</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.096064682041401</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.126868783146278</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.779394624600755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3.894369807934424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.346687886269251</v>
+        <v>4.386412324341904</v>
       </c>
       <c r="C11">
-        <v>2.40366701057593</v>
+        <v>1.064634002293218</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2802817239056523</v>
+        <v>2.609405243108483</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007206788336236106</v>
+        <v>0.0007236341952288221</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.412632042405392</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.223865556458435</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.9347468148611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.214729019828411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.480339499281342</v>
+        <v>4.520242858250072</v>
       </c>
       <c r="C12">
-        <v>2.479037818947745</v>
+        <v>1.097395224723101</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2888929450883779</v>
+        <v>2.696855564535511</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.0007171978504628375</v>
+        <v>0.0007203884047315182</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.535545805429194</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.261386350651719</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.994912992588041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4.339734054427083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.451422423908582</v>
+        <v>4.491287954696929</v>
       </c>
       <c r="C13">
-        <v>2.462723118691258</v>
+        <v>1.090303239811732</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2870282634268762</v>
+        <v>2.67789155430053</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007179485612172362</v>
+        <v>0.0007210887390582954</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.508929064366839</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.253267491563065</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.981890999083177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4.312634928918413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.357624557442023</v>
+        <v>4.397364069257492</v>
       </c>
       <c r="C14">
-        <v>2.409831320653211</v>
+        <v>1.067313221746588</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2809856902589161</v>
+        <v>2.616542273650225</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007203928935812787</v>
+        <v>0.0007233677273886457</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.422679810820966</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.226935532757594</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.939668263422746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.224934697281299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.300548839314558</v>
+        <v>4.340208683146614</v>
       </c>
       <c r="C15">
-        <v>2.377667753534865</v>
+        <v>1.053334143011398</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2773132281405211</v>
+        <v>2.579332815599699</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007218873272469839</v>
+        <v>0.0007247600956501877</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.37026338375918</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.210914710145445</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.913988285393955</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>4.171719988053695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.978823455785744</v>
+        <v>4.017973995970692</v>
       </c>
       <c r="C16">
-        <v>2.196665064439117</v>
+        <v>0.9746709526266386</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2566763308566138</v>
+        <v>2.371262278746286</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007304165510118064</v>
+        <v>0.0007326932198776781</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.075768723566796</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.120630931753794</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.769414170646925</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3.873908792634609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.78578460093172</v>
+        <v>3.824563656618125</v>
       </c>
       <c r="C17">
-        <v>2.088305339589681</v>
+        <v>0.9275707879180572</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2443478033340369</v>
+        <v>2.247738895160978</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007356259860491853</v>
+        <v>0.0007375277598295927</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.899892282468869</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.06647146611185</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.682817790215566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.696995552283767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.676180976668263</v>
+        <v>3.714721304520367</v>
       </c>
       <c r="C18">
-        <v>2.026862850517603</v>
+        <v>0.9008572182713976</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2373665130584612</v>
+        <v>2.178031355460547</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007386168320402781</v>
+        <v>0.0007402998539050771</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.800321798982793</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.035722378134565</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.633701497064649</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.597151365494511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.63930179841401</v>
+        <v>3.677756779833771</v>
       </c>
       <c r="C19">
-        <v>2.006202235885439</v>
+        <v>0.8918730625038904</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2350205548938149</v>
+        <v>2.154644588586194</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>0.0007396287997926475</v>
+        <v>0.0007412372404653755</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.76686686401905</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.025376046814088</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.617183470150579</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.563655438123703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.806182714735939</v>
+        <v>3.845003852702348</v>
       </c>
       <c r="C20">
-        <v>2.099746849963708</v>
+        <v>0.9325446256211478</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.245648579469929</v>
+        <v>2.260745824594991</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007350720632817165</v>
+        <v>0.0007370140737745167</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.918446544358574</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.072194192919909</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.691962870227158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.715625878411515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.385095336751704</v>
+        <v>4.424872337981867</v>
       </c>
       <c r="C21">
-        <v>2.425317427195068</v>
+        <v>1.074044152175276</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2827544587947983</v>
+        <v>2.634483954401531</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007196755356314354</v>
+        <v>0.0007226991012506637</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.447925936349293</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.234646966855237</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.952031503790749</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4.250587822716255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.779919055189396</v>
+        <v>4.820200131853937</v>
       </c>
       <c r="C22">
-        <v>2.648295553146625</v>
+        <v>1.170997029439206</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3082601665077647</v>
+        <v>2.894759984830657</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007094963468040892</v>
+        <v>0.0007131922677445976</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.812016267552707</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.345528837755111</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.129959205078691</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>4.622187749770859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.567479966718963</v>
+        <v>4.60749511470857</v>
       </c>
       <c r="C23">
-        <v>2.528226037634909</v>
+        <v>1.118779486346398</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2945171941372564</v>
+        <v>2.754148749646816</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0007149435751745058</v>
+        <v>0.0007182842361160632</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.615829648866111</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.285855168175516</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.034168644627371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4.421572118735725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.796956476964169</v>
+        <v>3.835758668655444</v>
       </c>
       <c r="C24">
-        <v>2.094571503978273</v>
+        <v>0.9302948281624026</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2450601695569645</v>
+        <v>2.254861359588119</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0.0007353225038851685</v>
+        <v>0.000737246333489697</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.910053395712566</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.069605751336539</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.687826313795924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.707197347338536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.019091989662627</v>
+        <v>3.055653514993821</v>
       </c>
       <c r="C25">
-        <v>1.659769424779483</v>
+        <v>0.741051053047471</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1958129020304966</v>
+        <v>1.766303107047804</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.0007571185167158274</v>
+        <v>0.0007573952527008935</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.20813797844616</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8513474583938887</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.340063686312831</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>3.008083514291741</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.511011270237361</v>
+        <v>2.500368217958396</v>
       </c>
       <c r="C2">
-        <v>0.609477459320857</v>
+        <v>0.6116803628423213</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.434139141585305</v>
+        <v>0.1966202640820924</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007722623713178283</v>
+        <v>0.08944616620839696</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.104474407756264</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.05358763290564461</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6991039479048382</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9760473428403031</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.535248886493903</v>
+        <v>0.3598125710837508</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.154694462315717</v>
+        <v>2.187809260369306</v>
       </c>
       <c r="C3">
-        <v>0.5235432879861435</v>
+        <v>0.5428052059957338</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.220609356598985</v>
+        <v>0.1724190201700324</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007824683438415489</v>
+        <v>0.08455056458743826</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1084379926835055</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.06322246180612945</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5995337546049342</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8471542024715646</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.233557588432745</v>
+        <v>0.3573810068033794</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.940688513669556</v>
+        <v>1.995732578359679</v>
       </c>
       <c r="C4">
-        <v>0.4719509993844895</v>
+        <v>0.5004900942922461</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.093759016393179</v>
+        <v>0.158137951196565</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007888287100324024</v>
+        <v>0.08226596857783974</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1113367014641646</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.06973002516559745</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5397325936172095</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.768315260532205</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.055587052321101</v>
+        <v>0.3583828425924906</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.85448249459472</v>
+        <v>1.917400761664084</v>
       </c>
       <c r="C5">
-        <v>0.4511672741889186</v>
+        <v>0.4832362008548046</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.042952906774147</v>
+        <v>0.152450567539951</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007914480160684991</v>
+        <v>0.08150421312315714</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.112629517067738</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.07252352988666555</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5156420215587616</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7362471023048442</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.984634294785721</v>
+        <v>0.3593814275139167</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.84022331823769</v>
+        <v>1.90438976792899</v>
       </c>
       <c r="C6">
-        <v>0.4477292302043736</v>
+        <v>0.4803704892648568</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.034565208240096</v>
+        <v>0.1515137981175769</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007918847078652869</v>
+        <v>0.08138760133502387</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.112850774262732</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.07299573900227241</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.511657112396577</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.730925328543691</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.972940640340113</v>
+        <v>0.3595818469238097</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.939522090949765</v>
+        <v>1.994676429431365</v>
       </c>
       <c r="C7">
-        <v>0.4716697952702873</v>
+        <v>0.500257448027412</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.093070463828766</v>
+        <v>0.1580607305333359</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0007888639192419239</v>
+        <v>0.08225502568279452</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1113536920065101</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.06976713518056377</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5394066406714799</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7678825589990197</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.05462411188455</v>
+        <v>0.3583939672840728</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.387035627851617</v>
+        <v>2.392620789295336</v>
       </c>
       <c r="C8">
-        <v>0.5795693271120115</v>
+        <v>0.5879351355450524</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.359511161730879</v>
+        <v>0.1881473844043811</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007757643509841947</v>
+        <v>0.08760096038247411</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1057412175751011</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.05678248611047643</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6644584114491039</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9315319755730727</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.429552830464417</v>
+        <v>0.3584335382290931</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.312931387380331</v>
+        <v>3.17259295331877</v>
       </c>
       <c r="C9">
-        <v>0.8033438161539834</v>
+        <v>0.7598612242103968</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.92572067463459</v>
+        <v>0.2523769005099226</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007506200797141933</v>
+        <v>0.1043851932082589</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.09868020799603983</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.03635414623894473</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9232982268998029</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.255660228518991</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.235940546152392</v>
+        <v>0.3800655388532164</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.040245129617404</v>
+        <v>3.746822398702932</v>
       </c>
       <c r="C10">
-        <v>0.9800998701774688</v>
+        <v>0.8864739858856581</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.385550847394015</v>
+        <v>0.3037116907520243</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007321401745424107</v>
+        <v>0.1214080910066784</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.09627256884103019</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02491133285374225</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.126868783146278</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.49699757102492</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.894369807934424</v>
+        <v>0.4116878997674007</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.386412324341904</v>
+        <v>4.008661757215862</v>
       </c>
       <c r="C11">
-        <v>1.064634002293218</v>
+        <v>0.9442136158942276</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.609405243108483</v>
+        <v>0.3281977327815611</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007236341952288221</v>
+        <v>0.1303733034026067</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.09587021515973504</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02059771470581095</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.223865556458435</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.607785222214204</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.214729019828411</v>
+        <v>0.43010534182703</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.520242858250072</v>
+        <v>4.107933325236672</v>
       </c>
       <c r="C12">
-        <v>1.097395224723101</v>
+        <v>0.9661052846109897</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.696855564535511</v>
+        <v>0.3376541525144177</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007203884047315182</v>
+        <v>0.1339620355195592</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09582554362385309</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01910309802823784</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.261386350651719</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.649908784324168</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.339734054427083</v>
+        <v>0.4377148537391093</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.491287954696929</v>
+        <v>4.086547639518585</v>
       </c>
       <c r="C13">
-        <v>1.090303239811732</v>
+        <v>0.9613892167982669</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.67789155430053</v>
+        <v>0.3356090008207957</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007210887390582954</v>
+        <v>0.1331802151084176</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.09583024030700926</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01941863769749608</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.253267491563065</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.640828682795572</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.312634928918413</v>
+        <v>0.4360468320758173</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.397364069257492</v>
+        <v>4.016826331554455</v>
       </c>
       <c r="C14">
-        <v>1.067313221746588</v>
+        <v>0.9460140784452449</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.616542273650225</v>
+        <v>0.3289719015176615</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007233677273886457</v>
+        <v>0.1306645577480978</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.09586433349110024</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02047190531264897</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.226935532757594</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.611247171946857</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.224934697281299</v>
+        <v>0.4307183184208299</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.340208683146614</v>
+        <v>3.974136395723747</v>
       </c>
       <c r="C15">
-        <v>1.053334143011398</v>
+        <v>0.9366000677875093</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.579332815599699</v>
+        <v>0.3249311166723814</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007247600956501877</v>
+        <v>0.129149445113903</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.09589949013084009</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02113547325122944</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.210914710145445</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.593150697816242</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.171719988053695</v>
+        <v>0.427538887726655</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.017973995970692</v>
+        <v>3.729725519764429</v>
       </c>
       <c r="C16">
-        <v>0.9746709526266386</v>
+        <v>0.8827039723900327</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.371262278746286</v>
+        <v>0.3021360421719308</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007326932198776781</v>
+        <v>0.1208482942791989</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.09631348171291165</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02521207401179382</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.120630931753794</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.489779723875643</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.873908792634609</v>
+        <v>0.4105700609231775</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.824563656618125</v>
+        <v>3.579966305330686</v>
       </c>
       <c r="C17">
-        <v>0.9275707879180572</v>
+        <v>0.8496814138010791</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.247738895160978</v>
+        <v>0.2884567822864597</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007375277598295927</v>
+        <v>0.116081157976943</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.09675046916840557</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.02794867057953843</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.06647146611185</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.426639858988239</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.696995552283767</v>
+        <v>0.4012311714747625</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.714721304520367</v>
+        <v>3.493885156661349</v>
       </c>
       <c r="C18">
-        <v>0.9008572182713976</v>
+        <v>0.8307007417932937</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.178031355460547</v>
+        <v>0.2806941685138824</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007402998539050771</v>
+        <v>0.1134530303564318</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09706651596738425</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.02960594891953816</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.035722378134565</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.390416079955926</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.597151365494511</v>
+        <v>0.3962356824277435</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.677756779833771</v>
+        <v>3.464748382911296</v>
       </c>
       <c r="C19">
-        <v>0.8918730625038904</v>
+        <v>0.8242762651079829</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.154644588586194</v>
+        <v>0.2780833588394884</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007412372404653755</v>
+        <v>0.1125822048727443</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.09718440075159407</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.03018106313512003</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.025376046814088</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.378166461078663</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.563655438123703</v>
+        <v>0.3946072492359178</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.845003852702348</v>
+        <v>3.595902386766056</v>
       </c>
       <c r="C20">
-        <v>0.9325446256211478</v>
+        <v>0.8531953285307736</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.260745824594991</v>
+        <v>0.2899019141159158</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007370140737745167</v>
+        <v>0.1165767221532619</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.09669719807369148</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02764866346180339</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.072194192919909</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.43335143601648</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.715625878411515</v>
+        <v>0.4021860097257672</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.424872337981867</v>
+        <v>4.037301700052751</v>
       </c>
       <c r="C21">
-        <v>1.074044152175276</v>
+        <v>0.9505293448381451</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.634483954401531</v>
+        <v>0.3309162053597845</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007226991012506637</v>
+        <v>0.1313980562745627</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.09585132968732069</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02015867821451911</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.234646966855237</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.619931123356878</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.250587822716255</v>
+        <v>0.43226573070163</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.820200131853937</v>
+        <v>4.326489063049337</v>
       </c>
       <c r="C22">
-        <v>1.170997029439206</v>
+        <v>1.014303068028767</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.894759984830657</v>
+        <v>0.3588055429472945</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007131922677445976</v>
+        <v>0.1422236759635425</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.09593038160409861</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01607837871188966</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.345528837755111</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.742880606394593</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.622187749770859</v>
+        <v>0.4556558260346009</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.60749511470857</v>
+        <v>4.172069141990562</v>
       </c>
       <c r="C23">
-        <v>1.118779486346398</v>
+        <v>0.9802489014963953</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.754148749646816</v>
+        <v>0.343813831798343</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007182842361160632</v>
+        <v>0.1363352662897768</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.09582755647112151</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01817784743946538</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.285855168175516</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.677158457841969</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.421572118735725</v>
+        <v>0.4428113093511143</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.835758668655444</v>
+        <v>3.588697632300864</v>
       </c>
       <c r="C24">
-        <v>0.9302948281624026</v>
+        <v>0.8516066743369493</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.254861359588119</v>
+        <v>0.289248254581139</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.000737246333489697</v>
+        <v>0.1163523283397723</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.09672108064752649</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02778403591850687</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.069605751336539</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.430316896770734</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.707197347338536</v>
+        <v>0.4017531679281916</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.055653514993821</v>
+        <v>2.961492116610543</v>
       </c>
       <c r="C25">
-        <v>0.741051053047471</v>
+        <v>0.7133218349483172</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.766303107047804</v>
+        <v>0.2343468482384168</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007573952527008935</v>
+        <v>0.0990855773870436</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1001307974149412</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.04129216485917597</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8513474583938887</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.16750857086847</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.008083514291741</v>
+        <v>0.3716487343218944</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.500368217958396</v>
+        <v>0.8132768871203098</v>
       </c>
       <c r="C2">
-        <v>0.6116803628423213</v>
+        <v>0.2310716155182888</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1966202640820924</v>
+        <v>0.1284940929411462</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.08944616620839696</v>
+        <v>0.1346533110046835</v>
       </c>
       <c r="H2">
-        <v>0.104474407756264</v>
+        <v>0.3167417066291094</v>
       </c>
       <c r="I2">
-        <v>0.05358763290564461</v>
+        <v>0.2096455108910882</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9760473428403031</v>
+        <v>0.3331240218226839</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3598125710837508</v>
+        <v>0.7990675131146645</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.187809260369306</v>
+        <v>0.7099332356210084</v>
       </c>
       <c r="C3">
-        <v>0.5428052059957338</v>
+        <v>0.2080910189378358</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1724190201700324</v>
+        <v>0.1242556862219288</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.08455056458743826</v>
+        <v>0.1370821295522546</v>
       </c>
       <c r="H3">
-        <v>0.1084379926835055</v>
+        <v>0.3218154056346947</v>
       </c>
       <c r="I3">
-        <v>0.06322246180612945</v>
+        <v>0.2161436260102501</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8471542024715646</v>
+        <v>0.2940286829703851</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3573810068033794</v>
+        <v>0.8146012699665732</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.995732578359679</v>
+        <v>0.6462081827346822</v>
       </c>
       <c r="C4">
-        <v>0.5004900942922461</v>
+        <v>0.1939196722103134</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.158137951196565</v>
+        <v>0.1218135239256384</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.08226596857783974</v>
+        <v>0.1388163646508644</v>
       </c>
       <c r="H4">
-        <v>0.1113367014641646</v>
+        <v>0.3251708810746337</v>
       </c>
       <c r="I4">
-        <v>0.06973002516559745</v>
+        <v>0.2203860473140824</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.768315260532205</v>
+        <v>0.2700133019120301</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3583828425924906</v>
+        <v>0.8251490032327666</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.917400761664084</v>
+        <v>0.6201733492484323</v>
       </c>
       <c r="C5">
-        <v>0.4832362008548046</v>
+        <v>0.1881298082265062</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.152450567539951</v>
+        <v>0.1208582924457957</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.08150421312315714</v>
+        <v>0.1395838215030878</v>
       </c>
       <c r="H5">
-        <v>0.112629517067738</v>
+        <v>0.3265985821260209</v>
       </c>
       <c r="I5">
-        <v>0.07252352988666555</v>
+        <v>0.2221781865409618</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7362471023048442</v>
+        <v>0.2602244611590834</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3593814275139167</v>
+        <v>0.8297003373341312</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.90438976792899</v>
+        <v>0.6158463347947531</v>
       </c>
       <c r="C6">
-        <v>0.4803704892648568</v>
+        <v>0.1871675177706038</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1515137981175769</v>
+        <v>0.1207020815798252</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.08138760133502387</v>
+        <v>0.1397149156579438</v>
       </c>
       <c r="H6">
-        <v>0.112850774262732</v>
+        <v>0.326839291375844</v>
       </c>
       <c r="I6">
-        <v>0.07299573900227241</v>
+        <v>0.2224795886280666</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.730925328543691</v>
+        <v>0.2585988971765687</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3595818469238097</v>
+        <v>0.8304713395413259</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.994676429431365</v>
+        <v>0.6458573339502323</v>
       </c>
       <c r="C7">
-        <v>0.500257448027412</v>
+        <v>0.1938416479032696</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1580607305333359</v>
+        <v>0.121800479932773</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.08225502568279452</v>
+        <v>0.1388264693585377</v>
       </c>
       <c r="H7">
-        <v>0.1113536920065101</v>
+        <v>0.3251898914380575</v>
       </c>
       <c r="I7">
-        <v>0.06976713518056377</v>
+        <v>0.2204099606076717</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7678825589990197</v>
+        <v>0.2698812953975818</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3583939672840728</v>
+        <v>0.8252093607487723</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.392620789295336</v>
+        <v>0.7777015059635914</v>
       </c>
       <c r="C8">
-        <v>0.5879351355450524</v>
+        <v>0.2231608666239708</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1881473844043811</v>
+        <v>0.1269992371565394</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.08760096038247411</v>
+        <v>0.1354401404104664</v>
       </c>
       <c r="H8">
-        <v>0.1057412175751011</v>
+        <v>0.3184412139559498</v>
       </c>
       <c r="I8">
-        <v>0.05678248611047643</v>
+        <v>0.211833531536366</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9315319755730727</v>
+        <v>0.3196463389937207</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3584335382290931</v>
+        <v>0.8042133925328869</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.17259295331877</v>
+        <v>1.034019276943866</v>
       </c>
       <c r="C9">
-        <v>0.7598612242103968</v>
+        <v>0.280153201604179</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2523769005099226</v>
+        <v>0.1384806348225638</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1043851932082589</v>
+        <v>0.1307425950755885</v>
       </c>
       <c r="H9">
-        <v>0.09868020799603983</v>
+        <v>0.3071166366379856</v>
       </c>
       <c r="I9">
-        <v>0.03635414623894473</v>
+        <v>0.1970272064934968</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.255660228518991</v>
+        <v>0.4171420470466103</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3800655388532164</v>
+        <v>0.7710945264128384</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.746822398702932</v>
+        <v>1.220897994007998</v>
       </c>
       <c r="C10">
-        <v>0.8864739858856581</v>
+        <v>0.3217000634930685</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3037116907520243</v>
+        <v>0.147722447925986</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1214080910066784</v>
+        <v>0.1284971687539169</v>
       </c>
       <c r="H10">
-        <v>0.09627256884103019</v>
+        <v>0.299965465015319</v>
       </c>
       <c r="I10">
-        <v>0.02491133285374225</v>
+        <v>0.1873863338510553</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.49699757102492</v>
+        <v>0.4887109577657895</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4116878997674007</v>
+        <v>0.7517278980038355</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.008661757215862</v>
+        <v>1.305586222308023</v>
       </c>
       <c r="C11">
-        <v>0.9442136158942276</v>
+        <v>0.3405264204489811</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3281977327815611</v>
+        <v>0.1521066924078411</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1303733034026067</v>
+        <v>0.1277420597659429</v>
       </c>
       <c r="H11">
-        <v>0.09587021515973504</v>
+        <v>0.2969670889692395</v>
       </c>
       <c r="I11">
-        <v>0.02059771470581095</v>
+        <v>0.1832714078439261</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.607785222214204</v>
+        <v>0.5212558226177464</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.43010534182703</v>
+        <v>0.7440076948358012</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.107933325236672</v>
+        <v>1.337607205788231</v>
       </c>
       <c r="C12">
-        <v>0.9661052846109897</v>
+        <v>0.3476445043698391</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3376541525144177</v>
+        <v>0.1537931558934531</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.1339620355195592</v>
+        <v>0.1274947868736334</v>
       </c>
       <c r="H12">
-        <v>0.09582554362385309</v>
+        <v>0.2958684025641389</v>
       </c>
       <c r="I12">
-        <v>0.01910309802823784</v>
+        <v>0.1817523252190028</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.649908784324168</v>
+        <v>0.5335777678249656</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4377148537391093</v>
+        <v>0.7412419365277572</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.086547639518585</v>
+        <v>1.330713108377267</v>
       </c>
       <c r="C13">
-        <v>0.9613892167982669</v>
+        <v>0.3461119965879789</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3356090008207957</v>
+        <v>0.1534287730097716</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.1331802151084176</v>
+        <v>0.1275463157608101</v>
       </c>
       <c r="H13">
-        <v>0.09583024030700926</v>
+        <v>0.2961033889537887</v>
       </c>
       <c r="I13">
-        <v>0.01941863769749608</v>
+        <v>0.1820777421716118</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.640828682795572</v>
+        <v>0.5309241146655808</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4360468320758173</v>
+        <v>0.7418305616598673</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.016826331554455</v>
+        <v>1.308221593758731</v>
       </c>
       <c r="C14">
-        <v>0.9460140784452449</v>
+        <v>0.3411122536503797</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3289719015176615</v>
+        <v>0.1522449107895412</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1306645577480978</v>
+        <v>0.1277209393487055</v>
       </c>
       <c r="H14">
-        <v>0.09586433349110024</v>
+        <v>0.2968759625883663</v>
       </c>
       <c r="I14">
-        <v>0.02047190531264897</v>
+        <v>0.1831456461294452</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.611247171946857</v>
+        <v>0.5222696002391274</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4307183184208299</v>
+        <v>0.7437769876389098</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.974136395723747</v>
+        <v>1.294438500759668</v>
       </c>
       <c r="C15">
-        <v>0.9366000677875093</v>
+        <v>0.3380483137647445</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3249311166723814</v>
+        <v>0.1515231892149842</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.129149445113903</v>
+        <v>0.1278329483316796</v>
       </c>
       <c r="H15">
-        <v>0.09589949013084009</v>
+        <v>0.2973539731177013</v>
       </c>
       <c r="I15">
-        <v>0.02113547325122944</v>
+        <v>0.1838048731075266</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.593150697816242</v>
+        <v>0.5169681783310978</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.427538887726655</v>
+        <v>0.7449897987183363</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.729725519764429</v>
+        <v>1.215356727613823</v>
       </c>
       <c r="C16">
-        <v>0.8827039723900327</v>
+        <v>0.3204681965325733</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3021360421719308</v>
+        <v>0.1474395809609916</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1208482942791989</v>
+        <v>0.1285519081642192</v>
       </c>
       <c r="H16">
-        <v>0.09631348171291165</v>
+        <v>0.3001665506121256</v>
       </c>
       <c r="I16">
-        <v>0.02521207401179382</v>
+        <v>0.1876607207280867</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.489779723875643</v>
+        <v>0.4865838002138645</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4105700609231775</v>
+        <v>0.7522544466514063</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.579966305330686</v>
+        <v>1.166758219214785</v>
       </c>
       <c r="C17">
-        <v>0.8496814138010791</v>
+        <v>0.3096641933445881</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2884567822864597</v>
+        <v>0.1449807940596415</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.116081157976943</v>
+        <v>0.1290614484932107</v>
       </c>
       <c r="H17">
-        <v>0.09675046916840557</v>
+        <v>0.3019572917954321</v>
       </c>
       <c r="I17">
-        <v>0.02794867057953843</v>
+        <v>0.1900956592846765</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.426639858988239</v>
+        <v>0.4679406059395177</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4012311714747625</v>
+        <v>0.7569909079412724</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.493885156661349</v>
+        <v>1.13877528243205</v>
       </c>
       <c r="C18">
-        <v>0.8307007417932937</v>
+        <v>0.3034431247547502</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2806941685138824</v>
+        <v>0.143583495715653</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1134530303564318</v>
+        <v>0.1293795704180596</v>
       </c>
       <c r="H18">
-        <v>0.09706651596738425</v>
+        <v>0.3030112487495273</v>
       </c>
       <c r="I18">
-        <v>0.02960594891953816</v>
+        <v>0.1915216434077416</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.390416079955926</v>
+        <v>0.4572164060132025</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3962356824277435</v>
+        <v>0.7598177099120278</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.464748382911296</v>
+        <v>1.129295589022661</v>
       </c>
       <c r="C19">
-        <v>0.8242762651079829</v>
+        <v>0.3013356087676584</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2780833588394884</v>
+        <v>0.143113291806273</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1125822048727443</v>
+        <v>0.1294915717106235</v>
       </c>
       <c r="H19">
-        <v>0.09718440075159407</v>
+        <v>0.3033722141600421</v>
       </c>
       <c r="I19">
-        <v>0.03018106313512003</v>
+        <v>0.1920088253523509</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.378166461078663</v>
+        <v>0.4535851927870169</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3946072492359178</v>
+        <v>0.7607923927297549</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.595902386766056</v>
+        <v>1.17193477041485</v>
       </c>
       <c r="C20">
-        <v>0.8531953285307736</v>
+        <v>0.3108150146634898</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2899019141159158</v>
+        <v>0.1452407813272814</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1165767221532619</v>
+        <v>0.1290046120142918</v>
       </c>
       <c r="H20">
-        <v>0.09669719807369148</v>
+        <v>0.3017641827806798</v>
       </c>
       <c r="I20">
-        <v>0.02764866346180339</v>
+        <v>0.189833818107819</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.43335143601648</v>
+        <v>0.4699253249504096</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4021860097257672</v>
+        <v>0.7564760863526629</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.037301700052751</v>
+        <v>1.314829232276679</v>
       </c>
       <c r="C21">
-        <v>0.9505293448381451</v>
+        <v>0.3425811029903798</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3309162053597845</v>
+        <v>0.1525919247632004</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1313980562745627</v>
+        <v>0.1276685957211043</v>
       </c>
       <c r="H21">
-        <v>0.09585132968732069</v>
+        <v>0.2966480412201378</v>
       </c>
       <c r="I21">
-        <v>0.02015867821451911</v>
+        <v>0.1828309125944454</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.619931123356878</v>
+        <v>0.5248117002626742</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.43226573070163</v>
+        <v>0.7432009868029041</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.326489063049337</v>
+        <v>1.407934748283196</v>
       </c>
       <c r="C22">
-        <v>1.014303068028767</v>
+        <v>0.3632774584614253</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3588055429472945</v>
+        <v>0.1575494606104684</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1422236759635425</v>
+        <v>0.1270210035100874</v>
       </c>
       <c r="H22">
-        <v>0.09593038160409861</v>
+        <v>0.2935185061079295</v>
       </c>
       <c r="I22">
-        <v>0.01607837871188966</v>
+        <v>0.1784824084543888</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.742880606394593</v>
+        <v>0.5606707908814883</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4556558260346009</v>
+        <v>0.7354446900111782</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.172069141990562</v>
+        <v>1.35826926378644</v>
       </c>
       <c r="C23">
-        <v>0.9802489014963953</v>
+        <v>0.3522374932099126</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.343813831798343</v>
+        <v>0.1548894034230486</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1363352662897768</v>
+        <v>0.1273458740224243</v>
       </c>
       <c r="H23">
-        <v>0.09582755647112151</v>
+        <v>0.2951691680463071</v>
       </c>
       <c r="I23">
-        <v>0.01817784743946538</v>
+        <v>0.1807823261862551</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.677158457841969</v>
+        <v>0.5415333574522094</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4428113093511143</v>
+        <v>0.7394998830589827</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.588697632300864</v>
+        <v>1.169594585425273</v>
       </c>
       <c r="C24">
-        <v>0.8516066743369493</v>
+        <v>0.3102947585348375</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.289248254581139</v>
+        <v>0.1451231903665828</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1163523283397723</v>
+        <v>0.1290302293796728</v>
       </c>
       <c r="H24">
-        <v>0.09672108064752649</v>
+        <v>0.3018514112574167</v>
       </c>
       <c r="I24">
-        <v>0.02778403591850687</v>
+        <v>0.1899521152032762</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.430316896770734</v>
+        <v>0.4690280520888592</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4017531679281916</v>
+        <v>0.7567085141033374</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.961492116610543</v>
+        <v>0.9649253721765945</v>
       </c>
       <c r="C25">
-        <v>0.7133218349483172</v>
+        <v>0.2647910519586674</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2343468482384168</v>
+        <v>0.1352345880743542</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0990855773870436</v>
+        <v>0.1318031785338789</v>
       </c>
       <c r="H25">
-        <v>0.1001307974149412</v>
+        <v>0.3099752983607189</v>
       </c>
       <c r="I25">
-        <v>0.04129216485917597</v>
+        <v>0.2008161963779203</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.16750857086847</v>
+        <v>0.3907773259919765</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.3716487343218944</v>
+        <v>0.7791860230205856</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8132768871203098</v>
+        <v>2.50036821795851</v>
       </c>
       <c r="C2">
-        <v>0.2310716155182888</v>
+        <v>0.6116803628425203</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1284940929411462</v>
+        <v>0.1966202640820924</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.1346533110046835</v>
+        <v>0.08944616620839696</v>
       </c>
       <c r="H2">
-        <v>0.3167417066291094</v>
+        <v>0.104474407756264</v>
       </c>
       <c r="I2">
-        <v>0.2096455108910882</v>
+        <v>0.05358763290564639</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3331240218226839</v>
+        <v>0.976047342840296</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7990675131146645</v>
+        <v>0.3598125710837508</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7099332356210084</v>
+        <v>2.187809260369079</v>
       </c>
       <c r="C3">
-        <v>0.2080910189378358</v>
+        <v>0.5428052059957054</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1242556862219288</v>
+        <v>0.1724190201700608</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.1370821295522546</v>
+        <v>0.08455056458738852</v>
       </c>
       <c r="H3">
-        <v>0.3218154056346947</v>
+        <v>0.1084379926836192</v>
       </c>
       <c r="I3">
-        <v>0.2161436260102501</v>
+        <v>0.06322246180612678</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2940286829703851</v>
+        <v>0.8471542024715504</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8146012699665732</v>
+        <v>0.3573810068033083</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6462081827346822</v>
+        <v>1.995732578360048</v>
       </c>
       <c r="C4">
-        <v>0.1939196722103134</v>
+        <v>0.5004900942927009</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1218135239256384</v>
+        <v>0.1581379511965579</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1388163646508644</v>
+        <v>0.08226596857777224</v>
       </c>
       <c r="H4">
-        <v>0.3251708810746337</v>
+        <v>0.1113367014641611</v>
       </c>
       <c r="I4">
-        <v>0.2203860473140824</v>
+        <v>0.06973002516559523</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2700133019120301</v>
+        <v>0.7683152605321908</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8251490032327666</v>
+        <v>0.3583828425925475</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6201733492484323</v>
+        <v>1.917400761664112</v>
       </c>
       <c r="C5">
-        <v>0.1881298082265062</v>
+        <v>0.4832362008548046</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1208582924457957</v>
+        <v>0.1524505675399794</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.1395838215030878</v>
+        <v>0.08150421312315714</v>
       </c>
       <c r="H5">
-        <v>0.3265985821260209</v>
+        <v>0.1126295170677452</v>
       </c>
       <c r="I5">
-        <v>0.2221781865409618</v>
+        <v>0.07252352988667887</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2602244611590834</v>
+        <v>0.7362471023048514</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8297003373341312</v>
+        <v>0.3593814275139096</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6158463347947531</v>
+        <v>1.904389767928791</v>
       </c>
       <c r="C6">
-        <v>0.1871675177706038</v>
+        <v>0.4803704892648</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1207020815798252</v>
+        <v>0.151513798117584</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.1397149156579438</v>
+        <v>0.08138760133496703</v>
       </c>
       <c r="H6">
-        <v>0.326839291375844</v>
+        <v>0.1128507742627356</v>
       </c>
       <c r="I6">
-        <v>0.2224795886280666</v>
+        <v>0.0729957390022844</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2585988971765687</v>
+        <v>0.7309253285436625</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8304713395413259</v>
+        <v>0.3595818469238026</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6458573339502323</v>
+        <v>1.994676429431365</v>
       </c>
       <c r="C7">
-        <v>0.1938416479032696</v>
+        <v>0.5002574480275825</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.121800479932773</v>
+        <v>0.1580607305333217</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1388264693585377</v>
+        <v>0.08225502568285137</v>
       </c>
       <c r="H7">
-        <v>0.3251898914380575</v>
+        <v>0.1113536920063858</v>
       </c>
       <c r="I7">
-        <v>0.2204099606076717</v>
+        <v>0.06976713518055977</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2698812953975818</v>
+        <v>0.7678825589990126</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8252093607487723</v>
+        <v>0.3583939672840728</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7777015059635914</v>
+        <v>2.39262078929562</v>
       </c>
       <c r="C8">
-        <v>0.2231608666239708</v>
+        <v>0.587935135544825</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1269992371565394</v>
+        <v>0.1881473844044166</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.1354401404104664</v>
+        <v>0.08760096038247411</v>
       </c>
       <c r="H8">
-        <v>0.3184412139559498</v>
+        <v>0.1057412175752148</v>
       </c>
       <c r="I8">
-        <v>0.211833531536366</v>
+        <v>0.05678248611047421</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3196463389937207</v>
+        <v>0.9315319755730656</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8042133925328869</v>
+        <v>0.3584335382290931</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.034019276943866</v>
+        <v>3.17259295331877</v>
       </c>
       <c r="C9">
-        <v>0.280153201604179</v>
+        <v>0.7598612242104537</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1384806348225638</v>
+        <v>0.2523769005099652</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.1307425950755885</v>
+        <v>0.1043851932082092</v>
       </c>
       <c r="H9">
-        <v>0.3071166366379856</v>
+        <v>0.09868020799616772</v>
       </c>
       <c r="I9">
-        <v>0.1970272064934968</v>
+        <v>0.03635414623894384</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4171420470466103</v>
+        <v>1.255660228519005</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7710945264128384</v>
+        <v>0.3800655388532164</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.220897994007998</v>
+        <v>3.746822398703159</v>
       </c>
       <c r="C10">
-        <v>0.3217000634930685</v>
+        <v>0.8864739858856296</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.147722447925986</v>
+        <v>0.3037116907520669</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.1284971687539169</v>
+        <v>0.1214080910066215</v>
       </c>
       <c r="H10">
-        <v>0.299965465015319</v>
+        <v>0.09627256884103019</v>
       </c>
       <c r="I10">
-        <v>0.1873863338510553</v>
+        <v>0.02491133285375557</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4887109577657895</v>
+        <v>1.496997571024906</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7517278980038355</v>
+        <v>0.4116878997674007</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.305586222308023</v>
+        <v>4.008661757215748</v>
       </c>
       <c r="C11">
-        <v>0.3405264204489811</v>
+        <v>0.9442136158940571</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1521066924078411</v>
+        <v>0.328197732781554</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1277420597659429</v>
+        <v>0.130373303402628</v>
       </c>
       <c r="H11">
-        <v>0.2969670889692395</v>
+        <v>0.09587021515974925</v>
       </c>
       <c r="I11">
-        <v>0.1832714078439261</v>
+        <v>0.02059771470582783</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5212558226177464</v>
+        <v>1.60778522221419</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7440076948358012</v>
+        <v>0.43010534182703</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.337607205788231</v>
+        <v>4.1079333252369</v>
       </c>
       <c r="C12">
-        <v>0.3476445043698391</v>
+        <v>0.9661052846109897</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1537931558934531</v>
+        <v>0.3376541525144177</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.1274947868736334</v>
+        <v>0.1339620355195592</v>
       </c>
       <c r="H12">
-        <v>0.2958684025641389</v>
+        <v>0.09582554362396678</v>
       </c>
       <c r="I12">
-        <v>0.1817523252190028</v>
+        <v>0.0191030980282374</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5335777678249656</v>
+        <v>1.649908784324197</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7412419365277572</v>
+        <v>0.4377148537391662</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.330713108377267</v>
+        <v>4.086547639518471</v>
       </c>
       <c r="C13">
-        <v>0.3461119965879789</v>
+        <v>0.9613892167983238</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1534287730097716</v>
+        <v>0.335609000820817</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.1275463157608101</v>
+        <v>0.1331802151084247</v>
       </c>
       <c r="H13">
-        <v>0.2961033889537887</v>
+        <v>0.09583024030700926</v>
       </c>
       <c r="I13">
-        <v>0.1820777421716118</v>
+        <v>0.01941863769748231</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5309241146655808</v>
+        <v>1.640828682795615</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7418305616598673</v>
+        <v>0.4360468320757604</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.308221593758731</v>
+        <v>4.016826331554682</v>
       </c>
       <c r="C14">
-        <v>0.3411122536503797</v>
+        <v>0.9460140784452449</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1522449107895412</v>
+        <v>0.3289719015176757</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1277209393487055</v>
+        <v>0.1306645577480339</v>
       </c>
       <c r="H14">
-        <v>0.2968759625883663</v>
+        <v>0.09586433349110024</v>
       </c>
       <c r="I14">
-        <v>0.1831456461294452</v>
+        <v>0.02047190531264809</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5222696002391274</v>
+        <v>1.611247171946872</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7437769876389098</v>
+        <v>0.4307183184208299</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.294438500759668</v>
+        <v>3.97413639572369</v>
       </c>
       <c r="C15">
-        <v>0.3380483137647445</v>
+        <v>0.9366000677870545</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1515231892149842</v>
+        <v>0.324931116672353</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.1278329483316796</v>
+        <v>0.1291494451138462</v>
       </c>
       <c r="H15">
-        <v>0.2973539731177013</v>
+        <v>0.09589949013084009</v>
       </c>
       <c r="I15">
-        <v>0.1838048731075266</v>
+        <v>0.02113547325124365</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5169681783310978</v>
+        <v>1.593150697816256</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7449897987183363</v>
+        <v>0.4275388877266124</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.215356727613823</v>
+        <v>3.729725519764543</v>
       </c>
       <c r="C16">
-        <v>0.3204681965325733</v>
+        <v>0.8827039723899759</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1474395809609916</v>
+        <v>0.3021360421719663</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1285519081642192</v>
+        <v>0.1208482942791989</v>
       </c>
       <c r="H16">
-        <v>0.3001665506121256</v>
+        <v>0.09631348171291165</v>
       </c>
       <c r="I16">
-        <v>0.1876607207280867</v>
+        <v>0.02521207401177694</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4865838002138645</v>
+        <v>1.489779723875614</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7522544466514063</v>
+        <v>0.4105700609232343</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.166758219214785</v>
+        <v>3.5799663053308</v>
       </c>
       <c r="C17">
-        <v>0.3096641933445881</v>
+        <v>0.8496814138010791</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1449807940596415</v>
+        <v>0.2884567822864881</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.1290614484932107</v>
+        <v>0.1160811579768719</v>
       </c>
       <c r="H17">
-        <v>0.3019572917954321</v>
+        <v>0.09675046916829189</v>
       </c>
       <c r="I17">
-        <v>0.1900956592846765</v>
+        <v>0.0279486705795402</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4679406059395177</v>
+        <v>1.426639858988253</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7569909079412724</v>
+        <v>0.4012311714747625</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.13877528243205</v>
+        <v>3.493885156661293</v>
       </c>
       <c r="C18">
-        <v>0.3034431247547502</v>
+        <v>0.8307007417933505</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.143583495715653</v>
+        <v>0.2806941685138682</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1293795704180596</v>
+        <v>0.1134530303564958</v>
       </c>
       <c r="H18">
-        <v>0.3030112487495273</v>
+        <v>0.09706651596738425</v>
       </c>
       <c r="I18">
-        <v>0.1915216434077416</v>
+        <v>0.02960594891952395</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4572164060132025</v>
+        <v>1.390416079955898</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7598177099120278</v>
+        <v>0.3962356824276725</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.129295589022661</v>
+        <v>3.464748382911012</v>
       </c>
       <c r="C19">
-        <v>0.3013356087676584</v>
+        <v>0.8242762651080113</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.143113291806273</v>
+        <v>0.278083358839524</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.1294915717106235</v>
+        <v>0.112582204872794</v>
       </c>
       <c r="H19">
-        <v>0.3033722141600421</v>
+        <v>0.09718440075158696</v>
       </c>
       <c r="I19">
-        <v>0.1920088253523509</v>
+        <v>0.03018106313513202</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4535851927870169</v>
+        <v>1.378166461078678</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7607923927297549</v>
+        <v>0.3946072492359036</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.17193477041485</v>
+        <v>3.595902386766284</v>
       </c>
       <c r="C20">
-        <v>0.3108150146634898</v>
+        <v>0.8531953285307736</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1452407813272814</v>
+        <v>0.2899019141159016</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.1290046120142918</v>
+        <v>0.1165767221532121</v>
       </c>
       <c r="H20">
-        <v>0.3017641827806798</v>
+        <v>0.09669719807380517</v>
       </c>
       <c r="I20">
-        <v>0.189833818107819</v>
+        <v>0.02764866346180073</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4699253249504096</v>
+        <v>1.43335143601648</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7564760863526629</v>
+        <v>0.4021860097257672</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.314829232276679</v>
+        <v>4.037301700052467</v>
       </c>
       <c r="C21">
-        <v>0.3425811029903798</v>
+        <v>0.9505293448378609</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1525919247632004</v>
+        <v>0.3309162053597774</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.1276685957211043</v>
+        <v>0.1313980562746195</v>
       </c>
       <c r="H21">
-        <v>0.2966480412201378</v>
+        <v>0.09585132968743437</v>
       </c>
       <c r="I21">
-        <v>0.1828309125944454</v>
+        <v>0.02015867821451778</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5248117002626742</v>
+        <v>1.619931123356878</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7432009868029041</v>
+        <v>0.43226573070163</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.407934748283196</v>
+        <v>4.326489063049507</v>
       </c>
       <c r="C22">
-        <v>0.3632774584614253</v>
+        <v>1.014303068028568</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1575494606104684</v>
+        <v>0.3588055429473016</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.1270210035100874</v>
+        <v>0.1422236759634288</v>
       </c>
       <c r="H22">
-        <v>0.2935185061079295</v>
+        <v>0.09593038160410572</v>
       </c>
       <c r="I22">
-        <v>0.1784824084543888</v>
+        <v>0.01607837871190432</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5606707908814883</v>
+        <v>1.742880606394607</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7354446900111782</v>
+        <v>0.455655826034544</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.35826926378644</v>
+        <v>4.172069141990562</v>
       </c>
       <c r="C23">
-        <v>0.3522374932099126</v>
+        <v>0.9802489014963953</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1548894034230486</v>
+        <v>0.3438138317983288</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.1273458740224243</v>
+        <v>0.1363352662897412</v>
       </c>
       <c r="H23">
-        <v>0.2951691680463071</v>
+        <v>0.09582755647111441</v>
       </c>
       <c r="I23">
-        <v>0.1807823261862551</v>
+        <v>0.01817784743948003</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5415333574522094</v>
+        <v>1.677158457841941</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7394998830589827</v>
+        <v>0.4428113093511712</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.169594585425273</v>
+        <v>3.588697632300978</v>
       </c>
       <c r="C24">
-        <v>0.3102947585348375</v>
+        <v>0.8516066743370345</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1451231903665828</v>
+        <v>0.2892482545811674</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.1290302293796728</v>
+        <v>0.1163523283397154</v>
       </c>
       <c r="H24">
-        <v>0.3018514112574167</v>
+        <v>0.09672108064752649</v>
       </c>
       <c r="I24">
-        <v>0.1899521152032762</v>
+        <v>0.02778403591852019</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4690280520888592</v>
+        <v>1.430316896770748</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7567085141033374</v>
+        <v>0.4017531679281774</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9649253721765945</v>
+        <v>2.961492116610543</v>
       </c>
       <c r="C25">
-        <v>0.2647910519586674</v>
+        <v>0.7133218349485446</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1352345880743542</v>
+        <v>0.2343468482384168</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1318031785338789</v>
+        <v>0.0990855773870436</v>
       </c>
       <c r="H25">
-        <v>0.3099752983607189</v>
+        <v>0.1001307974149412</v>
       </c>
       <c r="I25">
-        <v>0.2008161963779203</v>
+        <v>0.04129216485917464</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3907773259919765</v>
+        <v>1.167508570868463</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7791860230205856</v>
+        <v>0.3716487343219512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.50036821795851</v>
+        <v>1.033253758436047</v>
       </c>
       <c r="C2">
-        <v>0.6116803628425203</v>
+        <v>0.2119446976603712</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1966202640820924</v>
+        <v>1.296493344624153</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.08944616620839696</v>
+        <v>0.1794067057663611</v>
       </c>
       <c r="H2">
-        <v>0.104474407756264</v>
+        <v>0.005239511841941269</v>
       </c>
       <c r="I2">
-        <v>0.05358763290564639</v>
+        <v>0.0004644357425980239</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2115933493719098</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1886571312068339</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.976047342840296</v>
+        <v>1.160075244961888</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3598125710837508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.7715979503195456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.187809260369079</v>
+        <v>0.9028285769453248</v>
       </c>
       <c r="C3">
-        <v>0.5428052059957054</v>
+        <v>0.191534208470415</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1724190201700608</v>
+        <v>1.130404636217918</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.08455056458738852</v>
+        <v>0.1815418254060148</v>
       </c>
       <c r="H3">
-        <v>0.1084379926836192</v>
+        <v>0.003442969330092915</v>
       </c>
       <c r="I3">
-        <v>0.06322246180612678</v>
+        <v>0.0004428549873356502</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2168353786811892</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1974004089663755</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8471542024715504</v>
+        <v>1.018855454147598</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3573810068033083</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.7868483737946974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.995732578360048</v>
+        <v>0.8224155969728031</v>
       </c>
       <c r="C4">
-        <v>0.5004900942927009</v>
+        <v>0.1791569672172244</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1581379511965579</v>
+        <v>1.028510827415218</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.08226596857777224</v>
+        <v>0.1831555684594903</v>
       </c>
       <c r="H4">
-        <v>0.1113367014641611</v>
+        <v>0.002495722055262606</v>
       </c>
       <c r="I4">
-        <v>0.06973002516559523</v>
+        <v>0.0005530436701808306</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2202639667521034</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2030132687627457</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7683152605321908</v>
+        <v>0.9321041244841695</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3583828425925475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.7972879920543718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.917400761664112</v>
+        <v>0.7892186361676465</v>
       </c>
       <c r="C5">
-        <v>0.4832362008548046</v>
+        <v>0.1745775118494777</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1524505675399794</v>
+        <v>0.986986922574232</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.08150421312315714</v>
+        <v>0.1836048778132735</v>
       </c>
       <c r="H5">
-        <v>0.1126295170677452</v>
+        <v>0.00214546878548405</v>
       </c>
       <c r="I5">
-        <v>0.07252352988667887</v>
+        <v>0.0006946073747360337</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.221558703493649</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2051855764272394</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7362471023048514</v>
+        <v>0.8971344403183537</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3593814275139096</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8008843332534568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.904389767928791</v>
+        <v>0.783281366613096</v>
       </c>
       <c r="C6">
-        <v>0.4803704892648</v>
+        <v>0.1743449621671687</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.151513798117584</v>
+        <v>0.9800799632499917</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.08138760133496703</v>
+        <v>0.1833413763344147</v>
       </c>
       <c r="H6">
-        <v>0.1128507742627356</v>
+        <v>0.002088615882271938</v>
       </c>
       <c r="I6">
-        <v>0.0729957390022844</v>
+        <v>0.000809427278198882</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2215892663317085</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2053376602752648</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7309253285436625</v>
+        <v>0.8918141831796618</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3595818469238026</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8003780436205474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.994676429431365</v>
+        <v>0.8208183208143112</v>
       </c>
       <c r="C7">
-        <v>0.5002574480275825</v>
+        <v>0.180534407738989</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1580607305333217</v>
+        <v>1.027917664894858</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.08225502568285137</v>
+        <v>0.1822278337357126</v>
       </c>
       <c r="H7">
-        <v>0.1113536920063858</v>
+        <v>0.002488441654550533</v>
       </c>
       <c r="I7">
-        <v>0.06976713518055977</v>
+        <v>0.0007846298233706861</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2197712688045783</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2024657710196456</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7678825589990126</v>
+        <v>0.9329687613934539</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3583939672840728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.7942875780391176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.39262078929562</v>
+        <v>0.9868151251573636</v>
       </c>
       <c r="C8">
-        <v>0.587935135544825</v>
+        <v>0.2067992199026349</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1881473844044166</v>
+        <v>1.239155964642833</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.08760096038247411</v>
+        <v>0.1788528589680247</v>
       </c>
       <c r="H8">
-        <v>0.1057412175752148</v>
+        <v>0.004582026236594094</v>
       </c>
       <c r="I8">
-        <v>0.05678248611047421</v>
+        <v>0.0007070923982857025</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2126917792091056</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.190874590397681</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9315319755730656</v>
+        <v>1.113176386758539</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3584335382290931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.7726368318581365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.17259295331877</v>
+        <v>1.31189411906999</v>
       </c>
       <c r="C9">
-        <v>0.7598612242104537</v>
+        <v>0.2570512885227032</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2523769005099652</v>
+        <v>1.654755659864961</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.1043851932082092</v>
+        <v>0.1764735778391326</v>
       </c>
       <c r="H9">
-        <v>0.09868020799616772</v>
+        <v>0.01005856633626141</v>
       </c>
       <c r="I9">
-        <v>0.03635414623894384</v>
+        <v>0.001262724282822703</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2014469634740053</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1711769660481597</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.255660228519005</v>
+        <v>1.464075206288157</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3800655388532164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.7446469108960514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.746822398703159</v>
+        <v>1.549354653274833</v>
       </c>
       <c r="C10">
-        <v>0.8864739858856296</v>
+        <v>0.2942076660937545</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3037116907520669</v>
+        <v>1.862315107931764</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.1214080910066215</v>
+        <v>0.1716883668976905</v>
       </c>
       <c r="H10">
-        <v>0.09627256884103019</v>
+        <v>0.01464640957183416</v>
       </c>
       <c r="I10">
-        <v>0.02491133285375557</v>
+        <v>0.002507485780529173</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1918968944753416</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1561681996355144</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.496997571024906</v>
+        <v>1.721231672823762</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4116878997674007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.714908434964201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.008661757215748</v>
+        <v>1.660399331349652</v>
       </c>
       <c r="C11">
-        <v>0.9442136158940571</v>
+        <v>0.300749037746229</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.328197732781554</v>
+        <v>1.190381871372267</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.130373303402628</v>
+        <v>0.1336393146750972</v>
       </c>
       <c r="H11">
-        <v>0.09587021515974925</v>
+        <v>0.03071863020259968</v>
       </c>
       <c r="I11">
-        <v>0.02059771470582783</v>
+        <v>0.003300520304621912</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1693466201068929</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1370603559939596</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.60778522221419</v>
+        <v>1.825928567100277</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.43010534182703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.5871175889238742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.1079333252369</v>
+        <v>1.706430336324161</v>
       </c>
       <c r="C12">
-        <v>0.9661052846109897</v>
+        <v>0.2962545391440585</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3376541525144177</v>
+        <v>0.7094853521693807</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.1339620355195592</v>
+        <v>0.1080482042375372</v>
       </c>
       <c r="H12">
-        <v>0.09582554362396678</v>
+        <v>0.06742140461253854</v>
       </c>
       <c r="I12">
-        <v>0.0191030980282374</v>
+        <v>0.003316354735225957</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1547912499363449</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1275810301493632</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.649908784324197</v>
+        <v>1.857976209326466</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4377148537391662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.5023887358653809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.086547639518471</v>
+        <v>1.702866621555387</v>
       </c>
       <c r="C13">
-        <v>0.9613892167983238</v>
+        <v>0.2853521155703476</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.335609000820817</v>
+        <v>0.3474359046541622</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.1331802151084247</v>
+        <v>0.0888929397620366</v>
       </c>
       <c r="H13">
-        <v>0.09583024030700926</v>
+        <v>0.1213790937795807</v>
       </c>
       <c r="I13">
-        <v>0.01941863769748231</v>
+        <v>0.003070010054028849</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1445961633521584</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1238068956494451</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.640828682795615</v>
+        <v>1.837827986327966</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4360468320757604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.4403634273495598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.016826331554682</v>
+        <v>1.677547998272246</v>
       </c>
       <c r="C14">
-        <v>0.9460140784452449</v>
+        <v>0.2753576727621692</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3289719015176757</v>
+        <v>0.1658187945070466</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1306645577480339</v>
+        <v>0.0788197213319819</v>
       </c>
       <c r="H14">
-        <v>0.09586433349110024</v>
+        <v>0.1696170999826165</v>
       </c>
       <c r="I14">
-        <v>0.02047190531264809</v>
+        <v>0.002871191176805787</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1395685659051722</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1239813753893495</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.611247171946872</v>
+        <v>1.800604805629519</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4307183184208299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.4084007885348555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.97413639572369</v>
+        <v>1.660220546627755</v>
       </c>
       <c r="C15">
-        <v>0.9366000677870545</v>
+        <v>0.2721170664393213</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.324931116672353</v>
+        <v>0.1305743319661019</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.1291494451138462</v>
+        <v>0.07705375689189076</v>
       </c>
       <c r="H15">
-        <v>0.09589949013084009</v>
+        <v>0.1817665686075287</v>
       </c>
       <c r="I15">
-        <v>0.02113547325124365</v>
+        <v>0.002875333964317939</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1389530997554633</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1248552193707191</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.593150697816256</v>
+        <v>1.78096196382603</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4275388877266124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.4033319029292421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.729725519764543</v>
+        <v>1.557685693506158</v>
       </c>
       <c r="C16">
-        <v>0.8827039723899759</v>
+        <v>0.2594516183125677</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3021360421719663</v>
+        <v>0.1280811369601054</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.1208482942791989</v>
+        <v>0.08226710566059836</v>
       </c>
       <c r="H16">
-        <v>0.09631348171291165</v>
+        <v>0.1677021955247255</v>
       </c>
       <c r="I16">
-        <v>0.02521207401177694</v>
+        <v>0.002508007874268969</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1445204203832677</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1311444160249491</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.489779723875614</v>
+        <v>1.675294127734617</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4105700609232343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.4258814257407515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.5799663053308</v>
+        <v>1.492605398910712</v>
       </c>
       <c r="C17">
-        <v>0.8496814138010791</v>
+        <v>0.255072672171778</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2884567822864881</v>
+        <v>0.2092998677792437</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1160811579768719</v>
+        <v>0.09131666686898043</v>
       </c>
       <c r="H17">
-        <v>0.09675046916829189</v>
+        <v>0.1294309867566028</v>
       </c>
       <c r="I17">
-        <v>0.0279486705795402</v>
+        <v>0.002360998938379488</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1513879295505554</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1357749295877932</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.426639858988253</v>
+        <v>1.614193344404953</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4012311714747625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.4593658721177007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.493885156661293</v>
+        <v>1.453447121405105</v>
       </c>
       <c r="C18">
-        <v>0.8307007417933505</v>
+        <v>0.2562175240281448</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2806941685138682</v>
+        <v>0.4342531620789103</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1134530303564958</v>
+        <v>0.107081490367591</v>
       </c>
       <c r="H18">
-        <v>0.09706651596738425</v>
+        <v>0.07706984292083519</v>
       </c>
       <c r="I18">
-        <v>0.02960594891952395</v>
+        <v>0.00209652237170932</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1612212818954291</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1408631618484206</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.390416079955898</v>
+        <v>1.583263968307165</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3962356824276725</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.5133621444315466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.464748382911012</v>
+        <v>1.435885931787254</v>
       </c>
       <c r="C19">
-        <v>0.8242762651080113</v>
+        <v>0.2647604751117711</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.278083358839524</v>
+        <v>0.854873791162305</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.112582204872794</v>
+        <v>0.1292613672727896</v>
       </c>
       <c r="H19">
-        <v>0.09718440075158696</v>
+        <v>0.03357266994309072</v>
       </c>
       <c r="I19">
-        <v>0.03018106313513202</v>
+        <v>0.002284867187786865</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1734789572115076</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1475431155542983</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.378166461078678</v>
+        <v>1.581708237876114</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3946072492359036</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.5860916417903113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.595902386766284</v>
+        <v>1.483427255996531</v>
       </c>
       <c r="C20">
-        <v>0.8531953285307736</v>
+        <v>0.2889928951725125</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2899019141159016</v>
+        <v>1.803491356056057</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.1165767221532121</v>
+        <v>0.1698457784399352</v>
       </c>
       <c r="H20">
-        <v>0.09669719807380517</v>
+        <v>0.01332129603075627</v>
       </c>
       <c r="I20">
-        <v>0.02764866346180073</v>
+        <v>0.002855656164642006</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1927347024778427</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1583290703406099</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.43335143601648</v>
+        <v>1.657924344951766</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4021860097257672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.712650211462929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.037301700052467</v>
+        <v>1.665162472668214</v>
       </c>
       <c r="C21">
-        <v>0.9505293448378609</v>
+        <v>0.3192636616761035</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3309162053597774</v>
+        <v>2.11734830047557</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.1313980562746195</v>
+        <v>0.1742940948369522</v>
       </c>
       <c r="H21">
-        <v>0.09585132968743437</v>
+        <v>0.01792977093457759</v>
       </c>
       <c r="I21">
-        <v>0.02015867821451778</v>
+        <v>0.00398200076021471</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1895863830415934</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1501958772544221</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.619931123356878</v>
+        <v>1.857221660044985</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.43226573070163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.7158067497182827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.326489063049507</v>
+        <v>1.785581333289741</v>
       </c>
       <c r="C22">
-        <v>1.014303068028568</v>
+        <v>0.3365575421521214</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3588055429473016</v>
+        <v>2.272530539183407</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.1422236759634288</v>
+        <v>0.1765423797314014</v>
       </c>
       <c r="H22">
-        <v>0.09593038160410572</v>
+        <v>0.02095631397351561</v>
       </c>
       <c r="I22">
-        <v>0.01607837871190432</v>
+        <v>0.004582021195627561</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1872690337183087</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1450123716286225</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.742880606394607</v>
+        <v>1.985014741937192</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.455655826034544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.7159191753391241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.172069141990562</v>
+        <v>1.722726467050222</v>
       </c>
       <c r="C23">
-        <v>0.9802489014963953</v>
+        <v>0.3255200090885921</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3438138317983288</v>
+        <v>2.189686377274143</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.1363352662897412</v>
+        <v>0.176356060256353</v>
       </c>
       <c r="H23">
-        <v>0.09582755647111441</v>
+        <v>0.01932306524202754</v>
       </c>
       <c r="I23">
-        <v>0.01817784743948003</v>
+        <v>0.003965811314488477</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1890442164070762</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1483578612426832</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.677158457841941</v>
+        <v>1.91514616832302</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4428113093511712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.7191362387035554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.588697632300978</v>
+        <v>1.482156061850333</v>
       </c>
       <c r="C24">
-        <v>0.8516066743370345</v>
+        <v>0.2869794882039685</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2892482545811674</v>
+        <v>1.877124417277614</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.1163523283397154</v>
+        <v>0.1748857922804206</v>
       </c>
       <c r="H24">
-        <v>0.09672108064752649</v>
+        <v>0.01362485501674465</v>
       </c>
       <c r="I24">
-        <v>0.02778403591852019</v>
+        <v>0.002407818657355953</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.195411854496939</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1606904638993178</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.430316896770748</v>
+        <v>1.653510161766405</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4017531679281774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.7289449438918325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.961492116610543</v>
+        <v>1.222083417368964</v>
       </c>
       <c r="C25">
-        <v>0.7133218349485446</v>
+        <v>0.2459703160824631</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2343468482384168</v>
+        <v>1.542030418059241</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0990855773870436</v>
+        <v>0.1751645356449529</v>
       </c>
       <c r="H25">
-        <v>0.1001307974149412</v>
+        <v>0.008405415520869652</v>
       </c>
       <c r="I25">
-        <v>0.04129216485917464</v>
+        <v>0.00138634678804106</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2034031588017839</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1752952646495771</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.167508570868463</v>
+        <v>1.37158898993053</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.3716487343219512</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.7458091429194837</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.033253758436047</v>
+        <v>1.032361681172489</v>
       </c>
       <c r="C2">
-        <v>0.2119446976603712</v>
+        <v>0.2099366855480298</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.296493344624153</v>
+        <v>1.297782390252394</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.1794067057663611</v>
+        <v>0.1564206561138342</v>
       </c>
       <c r="H2">
-        <v>0.005239511841941269</v>
+        <v>0.005361884201765421</v>
       </c>
       <c r="I2">
-        <v>0.0004644357425980239</v>
+        <v>0.0006378889760396689</v>
       </c>
       <c r="J2">
-        <v>0.2115933493719098</v>
+        <v>0.2395233953248841</v>
       </c>
       <c r="K2">
-        <v>0.1886571312068339</v>
+        <v>0.1793414917743004</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1065026495764645</v>
       </c>
       <c r="M2">
-        <v>1.160075244961888</v>
+        <v>0.03823872047552879</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.166427796758768</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.7715979503195456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.7476084187489889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9028285769453248</v>
+        <v>0.9047961292287141</v>
       </c>
       <c r="C3">
-        <v>0.191534208470415</v>
+        <v>0.1859652444118183</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.130404636217918</v>
+        <v>1.132060957047059</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.1815418254060148</v>
+        <v>0.1598541979988752</v>
       </c>
       <c r="H3">
-        <v>0.003442969330092915</v>
+        <v>0.003579396166999094</v>
       </c>
       <c r="I3">
-        <v>0.0004428549873356502</v>
+        <v>0.0005064777132419707</v>
       </c>
       <c r="J3">
-        <v>0.2168353786811892</v>
+        <v>0.2434609744582943</v>
       </c>
       <c r="K3">
-        <v>0.1974004089663755</v>
+        <v>0.18786417921301</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1116104867569181</v>
       </c>
       <c r="M3">
-        <v>1.018855454147598</v>
+        <v>0.04095235507643835</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.022659668549579</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.7868483737946974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.7653800579942072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8224155969728031</v>
+        <v>0.8260583884586765</v>
       </c>
       <c r="C4">
-        <v>0.1791569672172244</v>
+        <v>0.1714968859186854</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.028510827415218</v>
+        <v>1.030368642200514</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1831555684594903</v>
+        <v>0.1622618077156162</v>
       </c>
       <c r="H4">
-        <v>0.002495722055262606</v>
+        <v>0.002632103874242286</v>
       </c>
       <c r="I4">
-        <v>0.0005530436701808306</v>
+        <v>0.0005312424214194422</v>
       </c>
       <c r="J4">
-        <v>0.2202639667521034</v>
+        <v>0.2459708804725125</v>
       </c>
       <c r="K4">
-        <v>0.2030132687627457</v>
+        <v>0.1932973753257565</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1150125783735767</v>
       </c>
       <c r="M4">
-        <v>0.9321041244841695</v>
+        <v>0.04300827308823452</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.934400408695069</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.7972879920543718</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.7771468788499121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7892186361676465</v>
+        <v>0.793533387257412</v>
       </c>
       <c r="C5">
-        <v>0.1745775118494777</v>
+        <v>0.1660817313782985</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.986986922574232</v>
+        <v>0.9889217249914282</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.1836048778132735</v>
+        <v>0.1630480016490488</v>
       </c>
       <c r="H5">
-        <v>0.00214546878548405</v>
+        <v>0.002279797798663719</v>
       </c>
       <c r="I5">
-        <v>0.0006946073747360337</v>
+        <v>0.0006459830038201275</v>
       </c>
       <c r="J5">
-        <v>0.221558703493649</v>
+        <v>0.2468600097889713</v>
       </c>
       <c r="K5">
-        <v>0.2051855764272394</v>
+        <v>0.1953937534366466</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1163505752499052</v>
       </c>
       <c r="M5">
-        <v>0.8971344403183537</v>
+        <v>0.04393133801540355</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8988209336870625</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8008843332534568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.7812613716204524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.783281366613096</v>
+        <v>0.7877173829710387</v>
       </c>
       <c r="C6">
-        <v>0.1743449621671687</v>
+        <v>0.1657031586690749</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9800799632499917</v>
+        <v>0.9820274778040954</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.1833413763344147</v>
+        <v>0.1628584891987934</v>
       </c>
       <c r="H6">
-        <v>0.002088615882271938</v>
+        <v>0.002222485380907635</v>
       </c>
       <c r="I6">
-        <v>0.000809427278198882</v>
+        <v>0.0007725767062698452</v>
       </c>
       <c r="J6">
-        <v>0.2215892663317085</v>
+        <v>0.2468184444235497</v>
       </c>
       <c r="K6">
-        <v>0.2053376602752648</v>
+        <v>0.1955426983448429</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1164373289513971</v>
       </c>
       <c r="M6">
-        <v>0.8918141831796618</v>
+        <v>0.04407554377929335</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8933876076842751</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8003780436205474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.7808768106909554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8208183208143112</v>
+        <v>0.8246368389804388</v>
       </c>
       <c r="C7">
-        <v>0.180534407738989</v>
+        <v>0.1726108839889378</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.027917664894858</v>
+        <v>1.029748134795824</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1822278337357126</v>
+        <v>0.1627002641591453</v>
       </c>
       <c r="H7">
-        <v>0.002488441654550533</v>
+        <v>0.002622668891126834</v>
       </c>
       <c r="I7">
-        <v>0.0007846298233706861</v>
+        <v>0.0008054091503844063</v>
       </c>
       <c r="J7">
-        <v>0.2197712688045783</v>
+        <v>0.2432248981229819</v>
       </c>
       <c r="K7">
-        <v>0.2024657710196456</v>
+        <v>0.1925755475984925</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1145313520247804</v>
       </c>
       <c r="M7">
-        <v>0.9329687613934539</v>
+        <v>0.04294601306701751</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9349813875454061</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.7942875780391176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.7726001296578815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9868151251573636</v>
+        <v>0.9874279878112588</v>
       </c>
       <c r="C8">
-        <v>0.2067992199026349</v>
+        <v>0.2027519607024431</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.239155964642833</v>
+        <v>1.240481394121858</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.1788528589680247</v>
+        <v>0.1607770035175413</v>
       </c>
       <c r="H8">
-        <v>0.004582026236594094</v>
+        <v>0.004702392006180389</v>
       </c>
       <c r="I8">
-        <v>0.0007070923982857025</v>
+        <v>0.0008987763957080119</v>
       </c>
       <c r="J8">
-        <v>0.2126917792091056</v>
+        <v>0.2330866452912623</v>
       </c>
       <c r="K8">
-        <v>0.190874590397681</v>
+        <v>0.1809106574465842</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1074424422141131</v>
       </c>
       <c r="M8">
-        <v>1.113176386758539</v>
+        <v>0.03884388114798476</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.117790769366252</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.7726368318581365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.7443335221434069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.31189411906999</v>
+        <v>1.304989856992933</v>
       </c>
       <c r="C9">
-        <v>0.2570512885227032</v>
+        <v>0.2622209024307409</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.654755659864961</v>
+        <v>1.654965987898109</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.1764735778391326</v>
+        <v>0.1562905722979906</v>
       </c>
       <c r="H9">
-        <v>0.01005856633626141</v>
+        <v>0.01008292463399446</v>
       </c>
       <c r="I9">
-        <v>0.001262724282822703</v>
+        <v>0.001560909891256124</v>
       </c>
       <c r="J9">
-        <v>0.2014469634740053</v>
+        <v>0.2225874689741616</v>
       </c>
       <c r="K9">
-        <v>0.1711769660481597</v>
+        <v>0.161355127303545</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09666718144251263</v>
       </c>
       <c r="M9">
-        <v>1.464075206288157</v>
+        <v>0.03418330591718544</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.475133105182636</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.7446469108960514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.70730337371009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.549354653274833</v>
+        <v>1.537821864292908</v>
       </c>
       <c r="C10">
-        <v>0.2942076660937545</v>
+        <v>0.3045226972525512</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.862315107931764</v>
+        <v>1.861400558504201</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.1716883668976905</v>
+        <v>0.1583333379157708</v>
       </c>
       <c r="H10">
-        <v>0.01464640957183416</v>
+        <v>0.01452725572840308</v>
       </c>
       <c r="I10">
-        <v>0.002507485780529173</v>
+        <v>0.002780629021888359</v>
       </c>
       <c r="J10">
-        <v>0.1918968944753416</v>
+        <v>0.2027806873581319</v>
       </c>
       <c r="K10">
-        <v>0.1561681996355144</v>
+        <v>0.1457442902671202</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08925387685525132</v>
       </c>
       <c r="M10">
-        <v>1.721231672823762</v>
+        <v>0.03167927020275485</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.735191093368428</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.714908434964201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.6629644295783947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.660399331349652</v>
+        <v>1.652699046674684</v>
       </c>
       <c r="C11">
-        <v>0.300749037746229</v>
+        <v>0.3050572836210961</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.190381871372267</v>
+        <v>1.189263914908054</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1336393146750972</v>
+        <v>0.1376841250645313</v>
       </c>
       <c r="H11">
-        <v>0.03071863020259968</v>
+        <v>0.03054797871983794</v>
       </c>
       <c r="I11">
-        <v>0.003300520304621912</v>
+        <v>0.003626086120563699</v>
       </c>
       <c r="J11">
-        <v>0.1693466201068929</v>
+        <v>0.1726645754145029</v>
       </c>
       <c r="K11">
-        <v>0.1370603559939596</v>
+        <v>0.1291968966614072</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08351283488781192</v>
       </c>
       <c r="M11">
-        <v>1.825928567100277</v>
+        <v>0.02596350884682153</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.83361735491772</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.5871175889238742</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.5350465160269309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.706430336324161</v>
+        <v>1.702531284169339</v>
       </c>
       <c r="C12">
-        <v>0.2962545391440585</v>
+        <v>0.2953392564778454</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7094853521693807</v>
+        <v>0.7085427872535632</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.1080482042375372</v>
+        <v>0.1175576616640299</v>
       </c>
       <c r="H12">
-        <v>0.06742140461253854</v>
+        <v>0.06725054012004961</v>
       </c>
       <c r="I12">
-        <v>0.003316354735225957</v>
+        <v>0.003627750529623164</v>
       </c>
       <c r="J12">
-        <v>0.1547912499363449</v>
+        <v>0.1643897867743325</v>
       </c>
       <c r="K12">
-        <v>0.1275810301493632</v>
+        <v>0.1223668321072962</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0818321743022965</v>
       </c>
       <c r="M12">
-        <v>1.857976209326466</v>
+        <v>0.02284769920618457</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.860509400668235</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.5023887358653809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.4592181225138461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.702866621555387</v>
+        <v>1.702569246241808</v>
       </c>
       <c r="C13">
-        <v>0.2853521155703476</v>
+        <v>0.2801738467011461</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3474359046541622</v>
+        <v>0.3468267831871898</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0888929397620366</v>
+        <v>0.09423207849126669</v>
       </c>
       <c r="H13">
-        <v>0.1213790937795807</v>
+        <v>0.1212432161276382</v>
       </c>
       <c r="I13">
-        <v>0.003070010054028849</v>
+        <v>0.003397241007399465</v>
       </c>
       <c r="J13">
-        <v>0.1445961633521584</v>
+        <v>0.1636739877424338</v>
       </c>
       <c r="K13">
-        <v>0.1238068956494451</v>
+        <v>0.1209449322857468</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08188920421006607</v>
       </c>
       <c r="M13">
-        <v>1.837827986327966</v>
+        <v>0.02142515812717072</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.836402289844102</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.4403634273495598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.4123842883438087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.677547998272246</v>
+        <v>1.679680250629474</v>
       </c>
       <c r="C14">
-        <v>0.2753576727621692</v>
+        <v>0.2676138712361507</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1658187945070466</v>
+        <v>0.1654399593843223</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0788197213319819</v>
+        <v>0.0785344785011084</v>
       </c>
       <c r="H14">
-        <v>0.1696170999826165</v>
+        <v>0.1695158589938472</v>
       </c>
       <c r="I14">
-        <v>0.002871191176805787</v>
+        <v>0.003234184481945235</v>
       </c>
       <c r="J14">
-        <v>0.1395685659051722</v>
+        <v>0.1642142512039886</v>
       </c>
       <c r="K14">
-        <v>0.1239813753893495</v>
+        <v>0.1221774305269503</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08245538450757994</v>
       </c>
       <c r="M14">
-        <v>1.800604805629519</v>
+        <v>0.02130115187542606</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.796916047048143</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.4084007885348555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.391492552989142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.660220546627755</v>
+        <v>1.662919999438799</v>
       </c>
       <c r="C15">
-        <v>0.2721170664393213</v>
+        <v>0.2638741100383584</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1305743319661019</v>
+        <v>0.1302647242107042</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.07705375689189076</v>
+        <v>0.07450537054018369</v>
       </c>
       <c r="H15">
-        <v>0.1817665686075287</v>
+        <v>0.1816802161384743</v>
       </c>
       <c r="I15">
-        <v>0.002875333964317939</v>
+        <v>0.00327425949196769</v>
       </c>
       <c r="J15">
-        <v>0.1389530997554633</v>
+        <v>0.1646812721475319</v>
       </c>
       <c r="K15">
-        <v>0.1248552193707191</v>
+        <v>0.1231475408135743</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08270050274075125</v>
       </c>
       <c r="M15">
-        <v>1.78096196382603</v>
+        <v>0.02153517486115833</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.776939360431214</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.4033319029292421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.3895951486300255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.557685693506158</v>
+        <v>1.56022438790049</v>
       </c>
       <c r="C16">
-        <v>0.2594516183125677</v>
+        <v>0.2521415796092725</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1280811369601054</v>
+        <v>0.1279856154529675</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.08226710566059836</v>
+        <v>0.07230235100279003</v>
       </c>
       <c r="H16">
-        <v>0.1677021955247255</v>
+        <v>0.1676781799669271</v>
       </c>
       <c r="I16">
-        <v>0.002508007874268969</v>
+        <v>0.00297068127386968</v>
       </c>
       <c r="J16">
-        <v>0.1445204203832677</v>
+        <v>0.1716997524072568</v>
       </c>
       <c r="K16">
-        <v>0.1311444160249491</v>
+        <v>0.1285864360791273</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08358169074656585</v>
       </c>
       <c r="M16">
-        <v>1.675294127734617</v>
+        <v>0.02358576698562415</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.673177006357975</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.4258814257407515</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4183828282203841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.492605398910712</v>
+        <v>1.493990386341551</v>
       </c>
       <c r="C17">
-        <v>0.255072672171778</v>
+        <v>0.2494686878846295</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2092998677792437</v>
+        <v>0.2093149907409853</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.09131666686898043</v>
+        <v>0.07823062750507859</v>
       </c>
       <c r="H17">
-        <v>0.1294309867566028</v>
+        <v>0.1294341403664276</v>
       </c>
       <c r="I17">
-        <v>0.002360998938379488</v>
+        <v>0.002850495521966145</v>
       </c>
       <c r="J17">
-        <v>0.1513879295505554</v>
+        <v>0.1800909598482843</v>
       </c>
       <c r="K17">
-        <v>0.1357749295877932</v>
+        <v>0.1325387159918425</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0844987311899148</v>
       </c>
       <c r="M17">
-        <v>1.614193344404953</v>
+        <v>0.02510319012819225</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.614327019610386</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.4593658721177007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.4523627404568344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.453447121405105</v>
+        <v>1.452362931022179</v>
       </c>
       <c r="C18">
-        <v>0.2562175240281448</v>
+        <v>0.2537609575598907</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4342531620789103</v>
+        <v>0.434329292976166</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.107081490367591</v>
+        <v>0.09147107803588383</v>
       </c>
       <c r="H18">
-        <v>0.07706984292083519</v>
+        <v>0.07708258232876375</v>
       </c>
       <c r="I18">
-        <v>0.00209652237170932</v>
+        <v>0.00254591865244258</v>
       </c>
       <c r="J18">
-        <v>0.1612212818954291</v>
+        <v>0.1904327307458651</v>
       </c>
       <c r="K18">
-        <v>0.1408631618484206</v>
+        <v>0.1367461699628013</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08596665360548994</v>
       </c>
       <c r="M18">
-        <v>1.583263968307165</v>
+        <v>0.02662575264131783</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.586746385876069</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.5133621444315466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5026841163136737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.435885931787254</v>
+        <v>1.431404805013898</v>
       </c>
       <c r="C19">
-        <v>0.2647604751117711</v>
+        <v>0.2666752096871505</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.854873791162305</v>
+        <v>0.8549290323043977</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.1292613672727896</v>
+        <v>0.1108334073514783</v>
       </c>
       <c r="H19">
-        <v>0.03357266994309072</v>
+        <v>0.03358046154733785</v>
       </c>
       <c r="I19">
-        <v>0.002284867187786865</v>
+        <v>0.002757902467126705</v>
       </c>
       <c r="J19">
-        <v>0.1734789572115076</v>
+        <v>0.2020264710032045</v>
       </c>
       <c r="K19">
-        <v>0.1475431155542983</v>
+        <v>0.1419735087647371</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08810352051703196</v>
       </c>
       <c r="M19">
-        <v>1.581708237876114</v>
+        <v>0.0285120600091946</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.589287550396051</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.5860916417903113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.5675575794873282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.483427255996531</v>
+        <v>1.472770130261637</v>
       </c>
       <c r="C20">
-        <v>0.2889928951725125</v>
+        <v>0.2988566588722819</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.803491356056057</v>
+        <v>1.802993430602896</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.1698457784399352</v>
+        <v>0.1500383070321334</v>
       </c>
       <c r="H20">
-        <v>0.01332129603075627</v>
+        <v>0.01325817757034109</v>
       </c>
       <c r="I20">
-        <v>0.002855656164642006</v>
+        <v>0.003311731979390942</v>
       </c>
       <c r="J20">
-        <v>0.1927347024778427</v>
+        <v>0.2129926276770888</v>
       </c>
       <c r="K20">
-        <v>0.1583290703406099</v>
+        <v>0.1489353683070744</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09076280199075448</v>
       </c>
       <c r="M20">
-        <v>1.657924344951766</v>
+        <v>0.03191950937570986</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.671881882490567</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.712650211462929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.6709599932897135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.665162472668214</v>
+        <v>1.652737418039152</v>
       </c>
       <c r="C21">
-        <v>0.3192636616761035</v>
+        <v>0.3295694760394952</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.11734830047557</v>
+        <v>2.115272386510384</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.1742940948369522</v>
+        <v>0.1868580273398592</v>
       </c>
       <c r="H21">
-        <v>0.01792977093457759</v>
+        <v>0.01765015879931142</v>
       </c>
       <c r="I21">
-        <v>0.00398200076021471</v>
+        <v>0.004290618000559299</v>
       </c>
       <c r="J21">
-        <v>0.1895863830415934</v>
+        <v>0.1753879122161273</v>
       </c>
       <c r="K21">
-        <v>0.1501958772544221</v>
+        <v>0.1366529510320671</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.0855886684963667</v>
       </c>
       <c r="M21">
-        <v>1.857221660044985</v>
+        <v>0.03003343163228323</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.869644630120433</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.7158067497182827</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.6305970297042478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.785581333289741</v>
+        <v>1.772423546720034</v>
       </c>
       <c r="C22">
-        <v>0.3365575421521214</v>
+        <v>0.3464320223439472</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.272530539183407</v>
+        <v>2.269369938446417</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.1765423797314014</v>
+        <v>0.2161314837599946</v>
       </c>
       <c r="H22">
-        <v>0.02095631397351561</v>
+        <v>0.02051485355893856</v>
       </c>
       <c r="I22">
-        <v>0.004582021195627561</v>
+        <v>0.004687521922799753</v>
       </c>
       <c r="J22">
-        <v>0.1872690337183087</v>
+        <v>0.1602127068685681</v>
       </c>
       <c r="K22">
-        <v>0.1450123716286225</v>
+        <v>0.1287070677264186</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08260118110992853</v>
       </c>
       <c r="M22">
-        <v>1.985014741937192</v>
+        <v>0.02889094852080198</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.995774276000475</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.7159191753391241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.6007629927270983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.722726467050222</v>
+        <v>1.709521178723691</v>
       </c>
       <c r="C23">
-        <v>0.3255200090885921</v>
+        <v>0.3362603298218403</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.189686377274143</v>
+        <v>2.187176666917466</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.176356060256353</v>
+        <v>0.196976099506351</v>
       </c>
       <c r="H23">
-        <v>0.01932306524202754</v>
+        <v>0.01897900767651572</v>
       </c>
       <c r="I23">
-        <v>0.003965811314488477</v>
+        <v>0.00412655262932482</v>
       </c>
       <c r="J23">
-        <v>0.1890442164070762</v>
+        <v>0.1692774054426547</v>
       </c>
       <c r="K23">
-        <v>0.1483578612426832</v>
+        <v>0.1337423446584225</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08437446599560205</v>
       </c>
       <c r="M23">
-        <v>1.91514616832302</v>
+        <v>0.0298921737938187</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.92748854953021</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.7191362387035554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.6233439446721292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.482156061850333</v>
+        <v>1.471085156465307</v>
       </c>
       <c r="C24">
-        <v>0.2869794882039685</v>
+        <v>0.2972968056037075</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.877124417277614</v>
+        <v>1.876606032036975</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.1748857922804206</v>
+        <v>0.1543662334472558</v>
       </c>
       <c r="H24">
-        <v>0.01362485501674465</v>
+        <v>0.01355965379473328</v>
       </c>
       <c r="I24">
-        <v>0.002407818657355953</v>
+        <v>0.002763695405287869</v>
       </c>
       <c r="J24">
-        <v>0.195411854496939</v>
+        <v>0.2156323161415159</v>
       </c>
       <c r="K24">
-        <v>0.1606904638993178</v>
+        <v>0.1508519249885083</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09149494253190849</v>
       </c>
       <c r="M24">
-        <v>1.653510161766405</v>
+        <v>0.03264268498399314</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.667951878040469</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.7289449438918325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.6856476271590282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.222083417368964</v>
+        <v>1.217156156229294</v>
       </c>
       <c r="C25">
-        <v>0.2459703160824631</v>
+        <v>0.248931240253242</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.542030418059241</v>
+        <v>1.542616643450273</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1751645356449529</v>
+        <v>0.1537549406032852</v>
       </c>
       <c r="H25">
-        <v>0.008405415520869652</v>
+        <v>0.008469881679486424</v>
       </c>
       <c r="I25">
-        <v>0.00138634678804106</v>
+        <v>0.001759893564289072</v>
       </c>
       <c r="J25">
-        <v>0.2034031588017839</v>
+        <v>0.2274353771907833</v>
       </c>
       <c r="K25">
-        <v>0.1752952646495771</v>
+        <v>0.1658601338468007</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09907850467571055</v>
       </c>
       <c r="M25">
-        <v>1.37158898993053</v>
+        <v>0.03492446543431882</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.381157198875599</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.7458091429194837</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.7137791770997097</v>
       </c>
     </row>
   </sheetData>
